--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_11_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_11_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>227804.7922428761</v>
+        <v>224784.8332980551</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10929042.31596198</v>
+        <v>10976651.94967758</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21683954.80175629</v>
+        <v>21734671.81439168</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4003756.525120423</v>
+        <v>3981089.085318109</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="H11" t="n">
-        <v>4.018462044011843</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="I11" t="n">
         <v>4.562286607642875</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1458,52 +1458,52 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="H12" t="n">
+      <c r="S12" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="I12" t="n">
+      <c r="T12" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>4.562286607642875</v>
       </c>
       <c r="S13" t="n">
+        <v>4.562286607642875</v>
+      </c>
+      <c r="T13" t="n">
         <v>4.018462044011843</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.018462044011843</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.562286607642875</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="S14" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4.018462044011844</v>
+      </c>
+      <c r="U15" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="S15" t="n">
+      <c r="V15" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="T15" t="n">
+      <c r="W15" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="U15" t="n">
-        <v>4.018462044011843</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>4.562286607642875</v>
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R16" t="n">
-        <v>4.018462044011844</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S16" t="n">
-        <v>4.562286607642875</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1856,40 +1856,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="I17" t="n">
+        <v>4.018462044011843</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>4.562286607642875</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="C18" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>4.562286607642875</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="Y18" t="n">
         <v>4.562286607642875</v>
@@ -2044,22 +2044,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R19" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="T19" t="n">
-        <v>4.562286607642875</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="U19" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>12.64992415893886</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="U20" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>16.6683862029507</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>16.6683862029507</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>12.64992415893886</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="T21" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.6683862029507</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>12.64992415893886</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="R22" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="E23" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>12.64992415893886</v>
       </c>
       <c r="G23" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>16.6683862029507</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2409,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>16.6683862029507</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>18.92414419045267</v>
+        <v>12.64992415893886</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
     </row>
     <row r="25">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>16.6683862029507</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>12.64992415893886</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="F26" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="G26" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="H26" t="n">
-        <v>16.6683862029507</v>
+        <v>12.64992415893886</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>16.6683862029507</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="V27" t="n">
-        <v>18.92414419045267</v>
+        <v>12.64992415893886</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>16.6683862029507</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>12.64992415893886</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2795,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>12.64992415893886</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="H29" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>16.6683862029507</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>12.64992415893886</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>16.6683862029507</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
     </row>
     <row r="31">
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3007,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>12.64992415893886</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>16.6683862029507</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3038,16 +3038,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>12.64992415893886</v>
       </c>
       <c r="I32" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,25 +3074,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>16.6683862029507</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.6683862029507</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>12.64992415893886</v>
       </c>
       <c r="T33" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="Y33" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3187,16 +3187,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="D34" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="E34" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="F34" t="n">
-        <v>16.6683862029507</v>
+        <v>12.64992415893886</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3281,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>12.64992415893885</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>8.631462114927015</v>
       </c>
     </row>
     <row r="36">
@@ -3345,16 +3345,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>12.64992415893885</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="D36" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="F36" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>8.631462114927015</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>12.64992415893885</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.631462114927015</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>8.631462114927015</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="S38" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="T38" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>12.64992415893886</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>12.64992415893885</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>8.631462114927015</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
     </row>
     <row r="40">
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>8.631462114927015</v>
       </c>
       <c r="E40" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>12.64992415893885</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>12.64992415893885</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>8.631462114927015</v>
       </c>
     </row>
     <row r="42">
@@ -3828,16 +3828,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.631462114927015</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>12.64992415893886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>12.64992415893886</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>8.631462114927015</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="W43" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.032405809070742</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="C11" t="n">
-        <v>9.032405809070742</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="D11" t="n">
-        <v>9.032405809070742</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="E11" t="n">
-        <v>9.032405809070742</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="F11" t="n">
-        <v>9.032405809070742</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="G11" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="H11" t="n">
         <v>4.973353239361809</v>
@@ -5045,46 +5045,46 @@
         <v>0.36498292861143</v>
       </c>
       <c r="L11" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M11" t="n">
-        <v>0.36498292861143</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N11" t="n">
-        <v>4.881646670177876</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O11" t="n">
-        <v>9.215818947438606</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P11" t="n">
-        <v>13.73248268900505</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q11" t="n">
         <v>18.2491464305715</v>
       </c>
       <c r="R11" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S11" t="n">
-        <v>9.032405809070742</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T11" t="n">
-        <v>9.032405809070742</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U11" t="n">
-        <v>9.032405809070742</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V11" t="n">
-        <v>9.032405809070742</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W11" t="n">
-        <v>9.032405809070742</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="X11" t="n">
-        <v>9.032405809070742</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.032405809070742</v>
+        <v>18.2491464305715</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.2491464305715</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C12" t="n">
-        <v>18.2491464305715</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D12" t="n">
-        <v>18.2491464305715</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E12" t="n">
-        <v>18.2491464305715</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F12" t="n">
-        <v>14.19009386086257</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G12" t="n">
-        <v>9.581723550112187</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H12" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I12" t="n">
         <v>0.36498292861143</v>
@@ -5124,13 +5124,13 @@
         <v>0.36498292861143</v>
       </c>
       <c r="L12" t="n">
-        <v>4.69915520587216</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M12" t="n">
-        <v>9.215818947438606</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N12" t="n">
-        <v>13.73248268900505</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O12" t="n">
         <v>18.2491464305715</v>
@@ -5142,28 +5142,28 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R12" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S12" t="n">
-        <v>18.2491464305715</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="T12" t="n">
-        <v>18.2491464305715</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="U12" t="n">
-        <v>18.2491464305715</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="V12" t="n">
-        <v>18.2491464305715</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="W12" t="n">
-        <v>18.2491464305715</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="X12" t="n">
-        <v>18.2491464305715</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.2491464305715</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C13" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D13" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E13" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F13" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G13" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H13" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I13" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J13" t="n">
         <v>0.36498292861143</v>
@@ -5209,7 +5209,7 @@
         <v>4.881646670177876</v>
       </c>
       <c r="N13" t="n">
-        <v>9.215818947438606</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="O13" t="n">
         <v>13.73248268900505</v>
@@ -5224,25 +5224,25 @@
         <v>9.032405809070742</v>
       </c>
       <c r="S13" t="n">
-        <v>4.973353239361809</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="T13" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="U13" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="V13" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="W13" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="X13" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.424035498320363</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="C14" t="n">
-        <v>4.424035498320363</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="D14" t="n">
-        <v>4.424035498320363</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="E14" t="n">
-        <v>4.424035498320363</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="F14" t="n">
-        <v>4.424035498320363</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G14" t="n">
-        <v>4.424035498320363</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H14" t="n">
-        <v>4.424035498320363</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="I14" t="n">
         <v>0.36498292861143</v>
       </c>
       <c r="J14" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.881646670177876</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>9.398310411744323</v>
-      </c>
-      <c r="L14" t="n">
-        <v>13.73248268900505</v>
       </c>
       <c r="M14" t="n">
         <v>13.73248268900505</v>
@@ -5300,28 +5300,28 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R14" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="S14" t="n">
-        <v>9.032405809070742</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="T14" t="n">
-        <v>4.424035498320363</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="U14" t="n">
-        <v>4.424035498320363</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="V14" t="n">
-        <v>4.424035498320363</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="W14" t="n">
-        <v>4.424035498320363</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="X14" t="n">
-        <v>4.424035498320363</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.424035498320363</v>
+        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="15">
@@ -5361,10 +5361,10 @@
         <v>0.36498292861143</v>
       </c>
       <c r="L15" t="n">
-        <v>4.881646670177876</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M15" t="n">
-        <v>9.398310411744323</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N15" t="n">
         <v>13.73248268900505</v>
@@ -5379,19 +5379,19 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R15" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S15" t="n">
-        <v>9.032405809070742</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T15" t="n">
-        <v>4.424035498320363</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="U15" t="n">
-        <v>0.36498292861143</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="V15" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="W15" t="n">
         <v>0.36498292861143</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="C16" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="D16" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="E16" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="F16" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G16" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H16" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="I16" t="n">
         <v>4.973353239361809</v>
@@ -5437,49 +5437,49 @@
         <v>0.36498292861143</v>
       </c>
       <c r="K16" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L16" t="n">
-        <v>4.69915520587216</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="M16" t="n">
-        <v>9.215818947438606</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="N16" t="n">
-        <v>13.73248268900505</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="O16" t="n">
-        <v>13.73248268900505</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P16" t="n">
         <v>18.2491464305715</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="R16" t="n">
-        <v>14.19009386086257</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="S16" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="T16" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="U16" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="V16" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="W16" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="X16" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="C17" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="D17" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="E17" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="F17" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="G17" t="n">
-        <v>9.581723550112187</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="H17" t="n">
-        <v>4.973353239361809</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="I17" t="n">
         <v>0.36498292861143</v>
       </c>
       <c r="J17" t="n">
-        <v>4.881646670177876</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K17" t="n">
-        <v>9.398310411744323</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="L17" t="n">
-        <v>9.398310411744323</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="M17" t="n">
         <v>13.73248268900505</v>
@@ -5537,28 +5537,28 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R17" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S17" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="T17" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="U17" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="V17" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="W17" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="X17" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.424035498320363</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="C18" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="D18" t="n">
         <v>0.36498292861143</v>
@@ -5622,22 +5622,22 @@
         <v>18.2491464305715</v>
       </c>
       <c r="T18" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U18" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V18" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W18" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="X18" t="n">
-        <v>9.032405809070742</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.424035498320363</v>
+        <v>9.581723550112187</v>
       </c>
     </row>
     <row r="19">
@@ -5677,13 +5677,13 @@
         <v>0.36498292861143</v>
       </c>
       <c r="L19" t="n">
-        <v>0.36498292861143</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M19" t="n">
-        <v>4.69915520587216</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N19" t="n">
-        <v>9.215818947438606</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O19" t="n">
         <v>13.73248268900505</v>
@@ -5692,19 +5692,19 @@
         <v>18.2491464305715</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="R19" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="S19" t="n">
-        <v>13.64077611982112</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="T19" t="n">
-        <v>9.032405809070742</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="U19" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="V19" t="n">
         <v>0.36498292861143</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.513931535236213</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="C20" t="n">
-        <v>1.513931535236213</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="D20" t="n">
-        <v>1.513931535236213</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="E20" t="n">
-        <v>1.513931535236213</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="F20" t="n">
-        <v>1.513931535236213</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="G20" t="n">
-        <v>1.513931535236213</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="H20" t="n">
-        <v>1.513931535236213</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="I20" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="J20" t="n">
-        <v>19.49186851616625</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="K20" t="n">
-        <v>19.49186851616625</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="L20" t="n">
-        <v>19.49186851616625</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="M20" t="n">
-        <v>38.22677126471439</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="N20" t="n">
-        <v>56.96167401326252</v>
+        <v>14.79271331029408</v>
       </c>
       <c r="O20" t="n">
-        <v>56.96167401326252</v>
+        <v>29.01095231727577</v>
       </c>
       <c r="P20" t="n">
-        <v>56.96167401326252</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="Q20" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="R20" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="S20" t="n">
-        <v>75.69657676181066</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="T20" t="n">
-        <v>75.69657676181066</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="U20" t="n">
-        <v>56.58127959973726</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="V20" t="n">
-        <v>56.58127959973726</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="W20" t="n">
-        <v>39.74452585938302</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="X20" t="n">
-        <v>39.74452585938302</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="Y20" t="n">
-        <v>20.62922869730961</v>
+        <v>13.9266497772701</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18.35068527559045</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="C21" t="n">
-        <v>1.513931535236213</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="D21" t="n">
-        <v>1.513931535236213</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="E21" t="n">
-        <v>1.513931535236213</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="F21" t="n">
-        <v>1.513931535236213</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="G21" t="n">
-        <v>1.513931535236213</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="H21" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="I21" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="J21" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="K21" t="n">
-        <v>5.848103812496957</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="L21" t="n">
-        <v>19.49186851616625</v>
+        <v>14.79271331029407</v>
       </c>
       <c r="M21" t="n">
-        <v>38.22677126471439</v>
+        <v>29.01095231727576</v>
       </c>
       <c r="N21" t="n">
-        <v>56.96167401326252</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="O21" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="P21" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="R21" t="n">
-        <v>75.69657676181066</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="S21" t="n">
-        <v>75.69657676181066</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="T21" t="n">
-        <v>56.58127959973726</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="U21" t="n">
-        <v>56.58127959973726</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="V21" t="n">
-        <v>56.58127959973726</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="W21" t="n">
-        <v>37.46598243766385</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="X21" t="n">
-        <v>18.35068527559045</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="Y21" t="n">
-        <v>18.35068527559045</v>
+        <v>13.9266497772701</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>39.74452585938302</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="C22" t="n">
-        <v>39.74452585938302</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="D22" t="n">
-        <v>39.74452585938302</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="E22" t="n">
-        <v>39.74452585938302</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="F22" t="n">
-        <v>39.74452585938302</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="G22" t="n">
-        <v>20.62922869730961</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="H22" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="I22" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="J22" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="K22" t="n">
-        <v>20.24883428378435</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="L22" t="n">
-        <v>20.24883428378435</v>
+        <v>14.79271331029408</v>
       </c>
       <c r="M22" t="n">
-        <v>38.22677126471439</v>
+        <v>29.01095231727577</v>
       </c>
       <c r="N22" t="n">
-        <v>56.96167401326252</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="O22" t="n">
-        <v>56.96167401326252</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="P22" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.69657676181066</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="R22" t="n">
-        <v>56.58127959973726</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="S22" t="n">
-        <v>56.58127959973726</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="T22" t="n">
-        <v>56.58127959973726</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="U22" t="n">
-        <v>56.58127959973726</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="V22" t="n">
-        <v>56.58127959973726</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="W22" t="n">
-        <v>56.58127959973726</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="X22" t="n">
-        <v>56.58127959973726</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="Y22" t="n">
-        <v>56.58127959973726</v>
+        <v>13.9266497772701</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>39.74452585938302</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="C23" t="n">
-        <v>39.74452585938302</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="D23" t="n">
-        <v>39.74452585938302</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="E23" t="n">
-        <v>20.62922869730961</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="F23" t="n">
-        <v>20.62922869730961</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="G23" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="H23" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="I23" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="J23" t="n">
-        <v>19.49186851616625</v>
+        <v>15.36718761360647</v>
       </c>
       <c r="K23" t="n">
-        <v>19.49186851616625</v>
+        <v>29.58542662058816</v>
       </c>
       <c r="L23" t="n">
-        <v>38.22677126471439</v>
+        <v>29.58542662058816</v>
       </c>
       <c r="M23" t="n">
-        <v>56.96167401326252</v>
+        <v>38.71252758269101</v>
       </c>
       <c r="N23" t="n">
-        <v>75.69657676181066</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="O23" t="n">
-        <v>75.69657676181066</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="P23" t="n">
-        <v>75.69657676181066</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="Q23" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="R23" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="S23" t="n">
-        <v>58.85982302145642</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="T23" t="n">
-        <v>58.85982302145642</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="U23" t="n">
-        <v>58.85982302145642</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="V23" t="n">
-        <v>58.85982302145642</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="W23" t="n">
-        <v>58.85982302145642</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="X23" t="n">
-        <v>58.85982302145642</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="Y23" t="n">
-        <v>39.74452585938302</v>
+        <v>42.94050347991613</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>37.46598243766385</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="C24" t="n">
-        <v>37.46598243766385</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="D24" t="n">
-        <v>37.46598243766385</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="E24" t="n">
-        <v>37.46598243766385</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="F24" t="n">
-        <v>37.46598243766385</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="G24" t="n">
-        <v>20.62922869730961</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="H24" t="n">
-        <v>1.513931535236213</v>
+        <v>15.6558754579478</v>
       </c>
       <c r="I24" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="J24" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="K24" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="L24" t="n">
-        <v>19.49186851616625</v>
+        <v>14.79271331029408</v>
       </c>
       <c r="M24" t="n">
-        <v>38.22677126471439</v>
+        <v>29.01095231727577</v>
       </c>
       <c r="N24" t="n">
-        <v>56.96167401326252</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="O24" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="P24" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="R24" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="S24" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="T24" t="n">
-        <v>56.58127959973726</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="U24" t="n">
-        <v>37.46598243766385</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="V24" t="n">
-        <v>37.46598243766385</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="W24" t="n">
-        <v>37.46598243766385</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="X24" t="n">
-        <v>37.46598243766385</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="Y24" t="n">
-        <v>37.46598243766385</v>
+        <v>28.43357662859312</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.46598243766385</v>
+        <v>15.6558754579478</v>
       </c>
       <c r="C25" t="n">
-        <v>37.46598243766385</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="D25" t="n">
-        <v>37.46598243766385</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="E25" t="n">
-        <v>37.46598243766385</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="F25" t="n">
-        <v>37.46598243766385</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="G25" t="n">
-        <v>37.46598243766385</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="H25" t="n">
-        <v>20.62922869730961</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="I25" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="J25" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="K25" t="n">
-        <v>1.513931535236213</v>
+        <v>15.36718761360647</v>
       </c>
       <c r="L25" t="n">
-        <v>1.513931535236213</v>
+        <v>29.58542662058816</v>
       </c>
       <c r="M25" t="n">
-        <v>20.24883428378435</v>
+        <v>43.80366562756985</v>
       </c>
       <c r="N25" t="n">
-        <v>38.98373703233248</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="O25" t="n">
-        <v>57.71863978088062</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="P25" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="Q25" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="R25" t="n">
-        <v>56.58127959973726</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="S25" t="n">
-        <v>56.58127959973726</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="T25" t="n">
-        <v>37.46598243766385</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="U25" t="n">
-        <v>37.46598243766385</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="V25" t="n">
-        <v>37.46598243766385</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="W25" t="n">
-        <v>37.46598243766385</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="X25" t="n">
-        <v>37.46598243766385</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="Y25" t="n">
-        <v>37.46598243766385</v>
+        <v>30.16280230927082</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56.58127959973726</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="C26" t="n">
-        <v>56.58127959973726</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="D26" t="n">
-        <v>56.58127959973726</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="E26" t="n">
-        <v>56.58127959973726</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="F26" t="n">
-        <v>37.46598243766385</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="G26" t="n">
-        <v>18.35068527559045</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="H26" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="I26" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="J26" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="K26" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="L26" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="M26" t="n">
-        <v>1.513931535236213</v>
+        <v>15.36718761360647</v>
       </c>
       <c r="N26" t="n">
-        <v>20.24883428378435</v>
+        <v>29.58542662058816</v>
       </c>
       <c r="O26" t="n">
-        <v>38.22677126471439</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="P26" t="n">
-        <v>56.96167401326252</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="Q26" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="R26" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="S26" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="T26" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="U26" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="V26" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="W26" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="X26" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="Y26" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18.35068527559045</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="C27" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="D27" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="E27" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="F27" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="G27" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="H27" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="I27" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="J27" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="K27" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="L27" t="n">
-        <v>15.15769623890551</v>
+        <v>14.79271331029408</v>
       </c>
       <c r="M27" t="n">
-        <v>33.89259898745365</v>
+        <v>29.01095231727577</v>
       </c>
       <c r="N27" t="n">
-        <v>52.62750173600178</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="O27" t="n">
-        <v>71.36240448454993</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="P27" t="n">
-        <v>71.36240448454993</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="Q27" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="R27" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="S27" t="n">
-        <v>56.58127959973726</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="T27" t="n">
-        <v>56.58127959973726</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="U27" t="n">
-        <v>56.58127959973726</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="V27" t="n">
-        <v>37.46598243766385</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="W27" t="n">
-        <v>37.46598243766385</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="X27" t="n">
-        <v>18.35068527559045</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="Y27" t="n">
-        <v>18.35068527559045</v>
+        <v>1.148948606624783</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39.74452585938302</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="C28" t="n">
-        <v>39.74452585938302</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="D28" t="n">
-        <v>39.74452585938302</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="E28" t="n">
-        <v>39.74452585938302</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="F28" t="n">
-        <v>39.74452585938302</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="G28" t="n">
-        <v>20.62922869730961</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="H28" t="n">
-        <v>20.62922869730961</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="I28" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="J28" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="K28" t="n">
-        <v>20.24883428378435</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="L28" t="n">
-        <v>38.22677126471439</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="M28" t="n">
-        <v>38.22677126471439</v>
+        <v>15.36718761360647</v>
       </c>
       <c r="N28" t="n">
-        <v>38.22677126471439</v>
+        <v>29.58542662058816</v>
       </c>
       <c r="O28" t="n">
-        <v>56.96167401326252</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="P28" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="R28" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="S28" t="n">
-        <v>58.85982302145642</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="T28" t="n">
-        <v>58.85982302145642</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="U28" t="n">
-        <v>39.74452585938302</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="V28" t="n">
-        <v>39.74452585938302</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="W28" t="n">
-        <v>39.74452585938302</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="X28" t="n">
-        <v>39.74452585938302</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="Y28" t="n">
-        <v>39.74452585938302</v>
+        <v>1.148948606624783</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20.62922869730961</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="C29" t="n">
-        <v>20.62922869730961</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="D29" t="n">
-        <v>20.62922869730961</v>
+        <v>44.66972916059383</v>
       </c>
       <c r="E29" t="n">
-        <v>20.62922869730961</v>
+        <v>30.16280230927082</v>
       </c>
       <c r="F29" t="n">
-        <v>20.62922869730961</v>
+        <v>15.6558754579478</v>
       </c>
       <c r="G29" t="n">
-        <v>20.62922869730961</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="H29" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="I29" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="J29" t="n">
-        <v>20.24883428378435</v>
+        <v>15.36718761360647</v>
       </c>
       <c r="K29" t="n">
-        <v>38.98373703233248</v>
+        <v>29.58542662058816</v>
       </c>
       <c r="L29" t="n">
-        <v>38.98373703233248</v>
+        <v>43.80366562756985</v>
       </c>
       <c r="M29" t="n">
-        <v>57.71863978088062</v>
+        <v>52.9307665896727</v>
       </c>
       <c r="N29" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="O29" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="P29" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="Q29" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="R29" t="n">
-        <v>58.85982302145642</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="S29" t="n">
-        <v>58.85982302145642</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="T29" t="n">
-        <v>58.85982302145642</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="U29" t="n">
-        <v>58.85982302145642</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="V29" t="n">
-        <v>39.74452585938302</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="W29" t="n">
-        <v>39.74452585938302</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="X29" t="n">
-        <v>39.74452585938302</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="Y29" t="n">
-        <v>20.62922869730961</v>
+        <v>57.44743033123915</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18.35068527559045</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="C30" t="n">
-        <v>18.35068527559045</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="D30" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="E30" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="F30" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="G30" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="H30" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="I30" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="J30" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="K30" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="L30" t="n">
-        <v>19.49186851616625</v>
+        <v>14.79271331029408</v>
       </c>
       <c r="M30" t="n">
-        <v>38.22677126471439</v>
+        <v>29.01095231727577</v>
       </c>
       <c r="N30" t="n">
-        <v>56.96167401326252</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="O30" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="P30" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="Q30" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="R30" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="S30" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="T30" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="U30" t="n">
-        <v>56.58127959973726</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="V30" t="n">
-        <v>37.46598243766385</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="W30" t="n">
-        <v>18.35068527559045</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="X30" t="n">
-        <v>18.35068527559045</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="Y30" t="n">
-        <v>18.35068527559045</v>
+        <v>13.9266497772701</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>39.74452585938302</v>
+        <v>44.66972916059383</v>
       </c>
       <c r="C31" t="n">
-        <v>20.62922869730961</v>
+        <v>44.66972916059383</v>
       </c>
       <c r="D31" t="n">
-        <v>1.513931535236213</v>
+        <v>44.66972916059383</v>
       </c>
       <c r="E31" t="n">
-        <v>1.513931535236213</v>
+        <v>30.16280230927082</v>
       </c>
       <c r="F31" t="n">
-        <v>1.513931535236213</v>
+        <v>30.16280230927082</v>
       </c>
       <c r="G31" t="n">
-        <v>1.513931535236213</v>
+        <v>15.6558754579478</v>
       </c>
       <c r="H31" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="I31" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="J31" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="K31" t="n">
-        <v>1.513931535236213</v>
+        <v>14.79271331029408</v>
       </c>
       <c r="L31" t="n">
-        <v>20.24883428378435</v>
+        <v>29.01095231727577</v>
       </c>
       <c r="M31" t="n">
-        <v>20.24883428378435</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="N31" t="n">
-        <v>38.98373703233248</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="O31" t="n">
-        <v>56.96167401326252</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="P31" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="R31" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="S31" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="T31" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="U31" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="V31" t="n">
-        <v>75.69657676181066</v>
+        <v>44.66972916059383</v>
       </c>
       <c r="W31" t="n">
-        <v>75.69657676181066</v>
+        <v>44.66972916059383</v>
       </c>
       <c r="X31" t="n">
-        <v>58.85982302145642</v>
+        <v>44.66972916059383</v>
       </c>
       <c r="Y31" t="n">
-        <v>58.85982302145642</v>
+        <v>44.66972916059383</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>58.85982302145642</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="C32" t="n">
-        <v>58.85982302145642</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="D32" t="n">
-        <v>58.85982302145642</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="E32" t="n">
-        <v>58.85982302145642</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="F32" t="n">
-        <v>39.74452585938302</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="G32" t="n">
-        <v>20.62922869730961</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="H32" t="n">
-        <v>20.62922869730961</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="I32" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="J32" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="K32" t="n">
-        <v>1.513931535236213</v>
+        <v>15.36718761360647</v>
       </c>
       <c r="L32" t="n">
-        <v>1.513931535236213</v>
+        <v>29.58542662058816</v>
       </c>
       <c r="M32" t="n">
-        <v>20.24883428378435</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="N32" t="n">
-        <v>38.98373703233248</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="O32" t="n">
-        <v>57.71863978088062</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="P32" t="n">
-        <v>57.71863978088062</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="Q32" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="R32" t="n">
-        <v>75.69657676181066</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="S32" t="n">
-        <v>75.69657676181066</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="T32" t="n">
-        <v>75.69657676181066</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="U32" t="n">
-        <v>75.69657676181066</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="V32" t="n">
-        <v>75.69657676181066</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="W32" t="n">
-        <v>75.69657676181066</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="X32" t="n">
-        <v>58.85982302145642</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="Y32" t="n">
-        <v>58.85982302145642</v>
+        <v>13.9266497772701</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>37.46598243766385</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="C33" t="n">
-        <v>37.46598243766385</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="D33" t="n">
-        <v>18.35068527559045</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="E33" t="n">
-        <v>18.35068527559045</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="F33" t="n">
-        <v>18.35068527559045</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="G33" t="n">
-        <v>18.35068527559045</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="H33" t="n">
-        <v>18.35068527559045</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="I33" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="J33" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="K33" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="L33" t="n">
-        <v>15.15769623890551</v>
+        <v>14.79271331029408</v>
       </c>
       <c r="M33" t="n">
-        <v>33.89259898745365</v>
+        <v>29.01095231727577</v>
       </c>
       <c r="N33" t="n">
-        <v>52.62750173600178</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="O33" t="n">
-        <v>71.36240448454993</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="P33" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="R33" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="S33" t="n">
-        <v>75.69657676181066</v>
+        <v>44.66972916059383</v>
       </c>
       <c r="T33" t="n">
-        <v>56.58127959973726</v>
+        <v>30.16280230927082</v>
       </c>
       <c r="U33" t="n">
-        <v>56.58127959973726</v>
+        <v>30.16280230927082</v>
       </c>
       <c r="V33" t="n">
-        <v>56.58127959973726</v>
+        <v>15.6558754579478</v>
       </c>
       <c r="W33" t="n">
-        <v>56.58127959973726</v>
+        <v>15.6558754579478</v>
       </c>
       <c r="X33" t="n">
-        <v>56.58127959973726</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="Y33" t="n">
-        <v>37.46598243766385</v>
+        <v>1.148948606624783</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="C34" t="n">
-        <v>56.58127959973726</v>
+        <v>42.94050347991613</v>
       </c>
       <c r="D34" t="n">
-        <v>37.46598243766385</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="E34" t="n">
-        <v>18.35068527559045</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="F34" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="G34" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="H34" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="I34" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="J34" t="n">
-        <v>1.513931535236213</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="K34" t="n">
-        <v>19.49186851616625</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="L34" t="n">
-        <v>38.22677126471439</v>
+        <v>14.79271331029408</v>
       </c>
       <c r="M34" t="n">
-        <v>56.96167401326252</v>
+        <v>29.01095231727577</v>
       </c>
       <c r="N34" t="n">
-        <v>56.96167401326252</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="O34" t="n">
-        <v>56.96167401326252</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="P34" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="R34" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="S34" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="T34" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="U34" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="V34" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="W34" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="X34" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.69657676181066</v>
+        <v>57.44743033123915</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.16280230927082</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="C35" t="n">
-        <v>30.16280230927082</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="D35" t="n">
-        <v>30.16280230927082</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="E35" t="n">
-        <v>30.16280230927082</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="F35" t="n">
-        <v>30.16280230927082</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="G35" t="n">
-        <v>30.16280230927082</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="H35" t="n">
-        <v>15.6558754579478</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="I35" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="J35" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="K35" t="n">
-        <v>15.36718761360647</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="L35" t="n">
-        <v>15.36718761360647</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="M35" t="n">
-        <v>29.58542662058817</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="N35" t="n">
-        <v>43.22919132425746</v>
+        <v>10.48554094342859</v>
       </c>
       <c r="O35" t="n">
-        <v>43.22919132425746</v>
+        <v>19.79513336983716</v>
       </c>
       <c r="P35" t="n">
-        <v>43.22919132425746</v>
+        <v>29.4967086352524</v>
       </c>
       <c r="Q35" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="R35" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="S35" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="T35" t="n">
-        <v>44.66972916059385</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="U35" t="n">
-        <v>30.16280230927082</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="V35" t="n">
-        <v>30.16280230927082</v>
+        <v>29.29972736009501</v>
       </c>
       <c r="W35" t="n">
-        <v>30.16280230927082</v>
+        <v>19.40117081952237</v>
       </c>
       <c r="X35" t="n">
-        <v>30.16280230927082</v>
+        <v>9.502614278949732</v>
       </c>
       <c r="Y35" t="n">
-        <v>30.16280230927082</v>
+        <v>0.7839656780133529</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>57.44743033123915</v>
+        <v>20.58107875915863</v>
       </c>
       <c r="C36" t="n">
-        <v>44.66972916059385</v>
+        <v>10.68252221858599</v>
       </c>
       <c r="D36" t="n">
-        <v>30.16280230927082</v>
+        <v>10.68252221858599</v>
       </c>
       <c r="E36" t="n">
-        <v>15.6558754579478</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="F36" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="G36" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="H36" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="I36" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="J36" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="K36" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="L36" t="n">
-        <v>14.79271331029408</v>
+        <v>10.48554094342859</v>
       </c>
       <c r="M36" t="n">
-        <v>29.01095231727577</v>
+        <v>19.79513336983716</v>
       </c>
       <c r="N36" t="n">
-        <v>43.22919132425746</v>
+        <v>29.4967086352524</v>
       </c>
       <c r="O36" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="P36" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="R36" t="n">
-        <v>57.44743033123915</v>
+        <v>29.29972736009501</v>
       </c>
       <c r="S36" t="n">
-        <v>57.44743033123915</v>
+        <v>20.58107875915863</v>
       </c>
       <c r="T36" t="n">
-        <v>57.44743033123915</v>
+        <v>20.58107875915863</v>
       </c>
       <c r="U36" t="n">
-        <v>57.44743033123915</v>
+        <v>20.58107875915863</v>
       </c>
       <c r="V36" t="n">
-        <v>57.44743033123915</v>
+        <v>20.58107875915863</v>
       </c>
       <c r="W36" t="n">
-        <v>57.44743033123915</v>
+        <v>20.58107875915863</v>
       </c>
       <c r="X36" t="n">
-        <v>57.44743033123915</v>
+        <v>20.58107875915863</v>
       </c>
       <c r="Y36" t="n">
-        <v>57.44743033123915</v>
+        <v>20.58107875915863</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.94050347991613</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="C37" t="n">
-        <v>42.94050347991613</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="D37" t="n">
-        <v>42.94050347991613</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="E37" t="n">
-        <v>42.94050347991613</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="F37" t="n">
-        <v>30.16280230927082</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="G37" t="n">
-        <v>15.6558754579478</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="H37" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="I37" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="J37" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="K37" t="n">
-        <v>15.36718761360647</v>
+        <v>10.48554094342859</v>
       </c>
       <c r="L37" t="n">
-        <v>29.01095231727577</v>
+        <v>20.18711620884384</v>
       </c>
       <c r="M37" t="n">
-        <v>43.22919132425746</v>
+        <v>29.88869147425908</v>
       </c>
       <c r="N37" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="O37" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="P37" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="Q37" t="n">
-        <v>42.94050347991613</v>
+        <v>29.29972736009501</v>
       </c>
       <c r="R37" t="n">
-        <v>42.94050347991613</v>
+        <v>19.40117081952237</v>
       </c>
       <c r="S37" t="n">
-        <v>42.94050347991613</v>
+        <v>9.502614278949732</v>
       </c>
       <c r="T37" t="n">
-        <v>42.94050347991613</v>
+        <v>9.502614278949732</v>
       </c>
       <c r="U37" t="n">
-        <v>42.94050347991613</v>
+        <v>9.502614278949732</v>
       </c>
       <c r="V37" t="n">
-        <v>42.94050347991613</v>
+        <v>9.502614278949732</v>
       </c>
       <c r="W37" t="n">
-        <v>42.94050347991613</v>
+        <v>9.502614278949732</v>
       </c>
       <c r="X37" t="n">
-        <v>42.94050347991613</v>
+        <v>9.502614278949732</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.94050347991613</v>
+        <v>0.7839656780133529</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.148948606624783</v>
+        <v>19.40117081952237</v>
       </c>
       <c r="C38" t="n">
-        <v>1.148948606624783</v>
+        <v>19.40117081952237</v>
       </c>
       <c r="D38" t="n">
-        <v>1.148948606624783</v>
+        <v>19.40117081952237</v>
       </c>
       <c r="E38" t="n">
-        <v>1.148948606624783</v>
+        <v>19.40117081952237</v>
       </c>
       <c r="F38" t="n">
-        <v>1.148948606624783</v>
+        <v>19.40117081952237</v>
       </c>
       <c r="G38" t="n">
-        <v>1.148948606624783</v>
+        <v>19.40117081952237</v>
       </c>
       <c r="H38" t="n">
-        <v>1.148948606624783</v>
+        <v>10.68252221858599</v>
       </c>
       <c r="I38" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="J38" t="n">
-        <v>15.36718761360647</v>
+        <v>10.48554094342859</v>
       </c>
       <c r="K38" t="n">
-        <v>15.36718761360647</v>
+        <v>20.18711620884384</v>
       </c>
       <c r="L38" t="n">
-        <v>15.36718761360647</v>
+        <v>29.4967086352524</v>
       </c>
       <c r="M38" t="n">
-        <v>15.36718761360647</v>
+        <v>29.4967086352524</v>
       </c>
       <c r="N38" t="n">
-        <v>29.01095231727577</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="O38" t="n">
-        <v>43.22919132425746</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="P38" t="n">
-        <v>43.22919132425746</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="Q38" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="R38" t="n">
-        <v>57.44743033123915</v>
+        <v>29.29972736009501</v>
       </c>
       <c r="S38" t="n">
-        <v>42.94050347991613</v>
+        <v>19.40117081952237</v>
       </c>
       <c r="T38" t="n">
-        <v>28.43357662859311</v>
+        <v>19.40117081952237</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92664977727009</v>
+        <v>19.40117081952237</v>
       </c>
       <c r="V38" t="n">
-        <v>1.148948606624783</v>
+        <v>19.40117081952237</v>
       </c>
       <c r="W38" t="n">
-        <v>1.148948606624783</v>
+        <v>19.40117081952237</v>
       </c>
       <c r="X38" t="n">
-        <v>1.148948606624783</v>
+        <v>19.40117081952237</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.148948606624783</v>
+        <v>19.40117081952237</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>42.94050347991613</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="C39" t="n">
-        <v>30.16280230927082</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="D39" t="n">
-        <v>15.6558754579478</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="E39" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="F39" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="G39" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="H39" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="I39" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="J39" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="K39" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="L39" t="n">
-        <v>14.79271331029408</v>
+        <v>10.48554094342859</v>
       </c>
       <c r="M39" t="n">
-        <v>29.01095231727577</v>
+        <v>20.18711620884384</v>
       </c>
       <c r="N39" t="n">
-        <v>43.22919132425746</v>
+        <v>29.88869147425908</v>
       </c>
       <c r="O39" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="P39" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="R39" t="n">
-        <v>57.44743033123915</v>
+        <v>29.29972736009501</v>
       </c>
       <c r="S39" t="n">
-        <v>57.44743033123915</v>
+        <v>29.29972736009501</v>
       </c>
       <c r="T39" t="n">
-        <v>42.94050347991613</v>
+        <v>29.29972736009501</v>
       </c>
       <c r="U39" t="n">
-        <v>42.94050347991613</v>
+        <v>29.29972736009501</v>
       </c>
       <c r="V39" t="n">
-        <v>42.94050347991613</v>
+        <v>29.29972736009501</v>
       </c>
       <c r="W39" t="n">
-        <v>42.94050347991613</v>
+        <v>20.58107875915863</v>
       </c>
       <c r="X39" t="n">
-        <v>42.94050347991613</v>
+        <v>10.68252221858599</v>
       </c>
       <c r="Y39" t="n">
-        <v>42.94050347991613</v>
+        <v>0.7839656780133529</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44.66972916059385</v>
+        <v>9.502614278949732</v>
       </c>
       <c r="C40" t="n">
-        <v>44.66972916059385</v>
+        <v>9.502614278949732</v>
       </c>
       <c r="D40" t="n">
-        <v>44.66972916059385</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="E40" t="n">
-        <v>30.16280230927082</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="F40" t="n">
-        <v>30.16280230927082</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="G40" t="n">
-        <v>30.16280230927082</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="H40" t="n">
-        <v>15.6558754579478</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="I40" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="J40" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="K40" t="n">
-        <v>15.36718761360647</v>
+        <v>10.48554094342859</v>
       </c>
       <c r="L40" t="n">
-        <v>29.58542662058817</v>
+        <v>20.18711620884384</v>
       </c>
       <c r="M40" t="n">
-        <v>43.80366562756986</v>
+        <v>29.88869147425908</v>
       </c>
       <c r="N40" t="n">
-        <v>43.80366562756986</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="O40" t="n">
-        <v>43.80366562756986</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="P40" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.66972916059385</v>
+        <v>29.29972736009501</v>
       </c>
       <c r="R40" t="n">
-        <v>44.66972916059385</v>
+        <v>19.40117081952237</v>
       </c>
       <c r="S40" t="n">
-        <v>44.66972916059385</v>
+        <v>9.502614278949732</v>
       </c>
       <c r="T40" t="n">
-        <v>44.66972916059385</v>
+        <v>9.502614278949732</v>
       </c>
       <c r="U40" t="n">
-        <v>44.66972916059385</v>
+        <v>9.502614278949732</v>
       </c>
       <c r="V40" t="n">
-        <v>44.66972916059385</v>
+        <v>9.502614278949732</v>
       </c>
       <c r="W40" t="n">
-        <v>44.66972916059385</v>
+        <v>9.502614278949732</v>
       </c>
       <c r="X40" t="n">
-        <v>44.66972916059385</v>
+        <v>9.502614278949732</v>
       </c>
       <c r="Y40" t="n">
-        <v>44.66972916059385</v>
+        <v>9.502614278949732</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.148948606624783</v>
+        <v>30.47963529973127</v>
       </c>
       <c r="C41" t="n">
-        <v>1.148948606624783</v>
+        <v>30.47963529973127</v>
       </c>
       <c r="D41" t="n">
-        <v>1.148948606624783</v>
+        <v>30.47963529973127</v>
       </c>
       <c r="E41" t="n">
-        <v>1.148948606624783</v>
+        <v>30.47963529973127</v>
       </c>
       <c r="F41" t="n">
-        <v>1.148948606624783</v>
+        <v>30.47963529973127</v>
       </c>
       <c r="G41" t="n">
-        <v>1.148948606624783</v>
+        <v>20.58107875915863</v>
       </c>
       <c r="H41" t="n">
-        <v>1.148948606624783</v>
+        <v>10.68252221858599</v>
       </c>
       <c r="I41" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="J41" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="K41" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="L41" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="M41" t="n">
-        <v>15.36718761360647</v>
+        <v>10.09355810442192</v>
       </c>
       <c r="N41" t="n">
-        <v>29.01095231727577</v>
+        <v>19.79513336983716</v>
       </c>
       <c r="O41" t="n">
-        <v>43.22919132425746</v>
+        <v>29.4967086352524</v>
       </c>
       <c r="P41" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="Q41" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="R41" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="S41" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="T41" t="n">
-        <v>44.66972916059385</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="U41" t="n">
-        <v>30.16280230927082</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="V41" t="n">
-        <v>15.6558754579478</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="W41" t="n">
-        <v>1.148948606624783</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="X41" t="n">
-        <v>1.148948606624783</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.148948606624783</v>
+        <v>30.47963529973127</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.148948606624783</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="C42" t="n">
-        <v>1.148948606624783</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="D42" t="n">
-        <v>1.148948606624783</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="E42" t="n">
-        <v>1.148948606624783</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="F42" t="n">
-        <v>1.148948606624783</v>
+        <v>29.29972736009501</v>
       </c>
       <c r="G42" t="n">
-        <v>1.148948606624783</v>
+        <v>19.40117081952237</v>
       </c>
       <c r="H42" t="n">
-        <v>1.148948606624783</v>
+        <v>9.502614278949732</v>
       </c>
       <c r="I42" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="J42" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="K42" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="L42" t="n">
-        <v>14.79271331029408</v>
+        <v>10.48554094342859</v>
       </c>
       <c r="M42" t="n">
-        <v>29.01095231727577</v>
+        <v>20.18711620884384</v>
       </c>
       <c r="N42" t="n">
-        <v>43.22919132425746</v>
+        <v>29.88869147425908</v>
       </c>
       <c r="O42" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="P42" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="R42" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="S42" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="T42" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="U42" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="V42" t="n">
-        <v>42.94050347991613</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="W42" t="n">
-        <v>28.43357662859311</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="X42" t="n">
-        <v>13.92664977727009</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.148948606624783</v>
+        <v>39.19828390066765</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13.92664977727009</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="C43" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="D43" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="E43" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="F43" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="G43" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="H43" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="I43" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="J43" t="n">
-        <v>1.148948606624783</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="K43" t="n">
-        <v>15.36718761360647</v>
+        <v>10.09355810442192</v>
       </c>
       <c r="L43" t="n">
-        <v>29.58542662058817</v>
+        <v>19.79513336983716</v>
       </c>
       <c r="M43" t="n">
-        <v>43.80366562756986</v>
+        <v>29.4967086352524</v>
       </c>
       <c r="N43" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="O43" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="P43" t="n">
-        <v>57.44743033123915</v>
+        <v>39.19828390066765</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.44743033123915</v>
+        <v>29.29972736009501</v>
       </c>
       <c r="R43" t="n">
-        <v>57.44743033123915</v>
+        <v>29.29972736009501</v>
       </c>
       <c r="S43" t="n">
-        <v>57.44743033123915</v>
+        <v>29.29972736009501</v>
       </c>
       <c r="T43" t="n">
-        <v>57.44743033123915</v>
+        <v>20.58107875915863</v>
       </c>
       <c r="U43" t="n">
-        <v>57.44743033123915</v>
+        <v>10.68252221858599</v>
       </c>
       <c r="V43" t="n">
-        <v>57.44743033123915</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="W43" t="n">
-        <v>42.94050347991613</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="X43" t="n">
-        <v>42.94050347991613</v>
+        <v>0.7839656780133529</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.43357662859311</v>
+        <v>0.7839656780133529</v>
       </c>
     </row>
     <row r="44">
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>125.3044664201871</v>
+        <v>123.3294632413428</v>
       </c>
       <c r="K5" t="n">
-        <v>136.5478848005339</v>
+        <v>133.5878670022052</v>
       </c>
       <c r="L5" t="n">
-        <v>132.1252185577705</v>
+        <v>128.4530547362656</v>
       </c>
       <c r="M5" t="n">
-        <v>115.0254326980416</v>
+        <v>110.9394428963982</v>
       </c>
       <c r="N5" t="n">
-        <v>112.2262519506117</v>
+        <v>108.074146562207</v>
       </c>
       <c r="O5" t="n">
-        <v>119.4420282111367</v>
+        <v>115.521312832713</v>
       </c>
       <c r="P5" t="n">
-        <v>136.7905035063442</v>
+        <v>133.4442636398158</v>
       </c>
       <c r="Q5" t="n">
-        <v>151.3833113496026</v>
+        <v>148.8704245674184</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>93.63840799751577</v>
+        <v>92.46210963432245</v>
       </c>
       <c r="K6" t="n">
-        <v>81.09868637503075</v>
+        <v>79.08820511428667</v>
       </c>
       <c r="L6" t="n">
-        <v>62.25674641947697</v>
+        <v>59.55340625560875</v>
       </c>
       <c r="M6" t="n">
-        <v>53.09829451730877</v>
+        <v>49.94362405439257</v>
       </c>
       <c r="N6" t="n">
-        <v>39.94946159069228</v>
+        <v>36.7112963876376</v>
       </c>
       <c r="O6" t="n">
-        <v>58.99019016908908</v>
+        <v>56.02790163521655</v>
       </c>
       <c r="P6" t="n">
-        <v>66.87317801841117</v>
+        <v>64.49568031000808</v>
       </c>
       <c r="Q6" t="n">
-        <v>95.12637925073214</v>
+        <v>93.53708499501614</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>94.78625412204124</v>
+        <v>93.57353977353563</v>
       </c>
       <c r="L7" t="n">
-        <v>91.08589504422159</v>
+        <v>89.5340382010713</v>
       </c>
       <c r="M7" t="n">
-        <v>92.74611017544663</v>
+        <v>91.10989472072971</v>
       </c>
       <c r="N7" t="n">
-        <v>82.60392011873066</v>
+        <v>81.00661021040554</v>
       </c>
       <c r="O7" t="n">
-        <v>96.81636169550576</v>
+        <v>95.34098746306717</v>
       </c>
       <c r="P7" t="n">
-        <v>102.0976392712786</v>
+        <v>100.8352017366527</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8693,22 +8693,22 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L11" t="n">
-        <v>28.8362588753597</v>
+        <v>33.39854548300258</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09656339947136416</v>
+        <v>4.474515194684224</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.53987477884264</v>
+        <v>13.72420959127265</v>
       </c>
       <c r="P11" t="n">
-        <v>47.23127172271754</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q11" t="n">
-        <v>85.26425743221384</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8857,10 +8857,10 @@
         <v>46.72338342663512</v>
       </c>
       <c r="N13" t="n">
-        <v>42.05346274136652</v>
+        <v>42.23779755379654</v>
       </c>
       <c r="O13" t="n">
-        <v>59.87999055852636</v>
+        <v>59.69565574609634</v>
       </c>
       <c r="P13" t="n">
         <v>71.15065506373918</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>74.31475871928936</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K14" t="n">
         <v>57.8521323086317</v>
       </c>
       <c r="L14" t="n">
-        <v>33.21421067057256</v>
+        <v>33.39854548300258</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09656339947136416</v>
+        <v>4.474515194684224</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9085,22 +9085,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>60.67557455063191</v>
+        <v>65.23786115827478</v>
       </c>
       <c r="L16" t="n">
-        <v>51.81392088397055</v>
+        <v>51.99825569640058</v>
       </c>
       <c r="M16" t="n">
         <v>51.285670034278</v>
       </c>
       <c r="N16" t="n">
-        <v>42.23779755379654</v>
+        <v>42.05346274136652</v>
       </c>
       <c r="O16" t="n">
         <v>55.31770395088348</v>
       </c>
       <c r="P16" t="n">
-        <v>71.15065506373918</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>74.31475871928936</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K17" t="n">
-        <v>57.8521323086317</v>
+        <v>57.66779749620168</v>
       </c>
       <c r="L17" t="n">
-        <v>28.8362588753597</v>
+        <v>33.39854548300258</v>
       </c>
       <c r="M17" t="n">
-        <v>4.474515194684216</v>
+        <v>4.658850007114239</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9325,16 +9325,16 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L19" t="n">
-        <v>47.4359690887577</v>
+        <v>51.81392088397056</v>
       </c>
       <c r="M19" t="n">
-        <v>51.10133522184798</v>
+        <v>51.285670034278</v>
       </c>
       <c r="N19" t="n">
         <v>42.23779755379654</v>
       </c>
       <c r="O19" t="n">
-        <v>59.87999055852636</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P19" t="n">
         <v>71.15065506373918</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>87.91200441561622</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K20" t="n">
         <v>53.28984570098882</v>
@@ -9407,19 +9407,19 @@
         <v>28.8362588753597</v>
       </c>
       <c r="M20" t="n">
-        <v>19.02070758992403</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N20" t="n">
-        <v>14.36185758280979</v>
+        <v>9.219293901113987</v>
       </c>
       <c r="O20" t="n">
-        <v>9.161922983629779</v>
+        <v>23.52378056643957</v>
       </c>
       <c r="P20" t="n">
-        <v>42.66898511507466</v>
+        <v>57.03084269788445</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.62611501502363</v>
+        <v>95.06382840738075</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9480,7 +9480,7 @@
         <v>60.55202075660908</v>
       </c>
       <c r="K21" t="n">
-        <v>28.92673245331029</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9559,22 +9559,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>79.59971874108457</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L22" t="n">
-        <v>47.4359690887577</v>
+        <v>61.21754959751456</v>
       </c>
       <c r="M22" t="n">
-        <v>64.88291573060485</v>
+        <v>61.08524100944491</v>
       </c>
       <c r="N22" t="n">
-        <v>56.59965513660633</v>
+        <v>52.03736852896346</v>
       </c>
       <c r="O22" t="n">
-        <v>55.31770395088348</v>
+        <v>69.67956153369327</v>
       </c>
       <c r="P22" t="n">
-        <v>85.51251264654897</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>87.91200441561622</v>
+        <v>84.11432969445627</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28984570098882</v>
+        <v>67.65170328379861</v>
       </c>
       <c r="L23" t="n">
-        <v>47.76040306581237</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M23" t="n">
-        <v>19.02070758992403</v>
+        <v>9.315857300585355</v>
       </c>
       <c r="N23" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>9.161922983629779</v>
@@ -9656,7 +9656,7 @@
         <v>42.66898511507466</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.70197082457096</v>
+        <v>95.06382840738075</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9720,7 +9720,7 @@
         <v>24.54878065809741</v>
       </c>
       <c r="L24" t="n">
-        <v>4.377951795212873</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9796,22 +9796,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>60.67557455063191</v>
+        <v>75.0374321334417</v>
       </c>
       <c r="L25" t="n">
-        <v>47.4359690887577</v>
+        <v>61.79782667156749</v>
       </c>
       <c r="M25" t="n">
-        <v>65.64752761708779</v>
+        <v>61.08524100944491</v>
       </c>
       <c r="N25" t="n">
-        <v>56.59965513660633</v>
+        <v>51.45709145491053</v>
       </c>
       <c r="O25" t="n">
-        <v>74.24184814133615</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P25" t="n">
-        <v>84.74790076006605</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9881,19 +9881,19 @@
         <v>28.8362588753597</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09656339947136416</v>
+        <v>14.45842098228115</v>
       </c>
       <c r="N26" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="O26" t="n">
-        <v>27.32145528759951</v>
+        <v>22.94350349238665</v>
       </c>
       <c r="P26" t="n">
-        <v>61.59312930552733</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q26" t="n">
-        <v>99.62611501502363</v>
+        <v>95.06382840738075</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.80138251712332</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10033,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>79.59971874108457</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L28" t="n">
-        <v>65.59550139272744</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M28" t="n">
-        <v>46.72338342663512</v>
+        <v>61.08524100944491</v>
       </c>
       <c r="N28" t="n">
-        <v>37.67551094615366</v>
+        <v>52.03736852896346</v>
       </c>
       <c r="O28" t="n">
-        <v>74.24184814133615</v>
+        <v>69.09928445964034</v>
       </c>
       <c r="P28" t="n">
-        <v>85.51251264654897</v>
+        <v>80.9502260389061</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>88.67661630209915</v>
+        <v>84.11432969445627</v>
       </c>
       <c r="K29" t="n">
-        <v>72.21398989144149</v>
+        <v>67.65170328379861</v>
       </c>
       <c r="L29" t="n">
-        <v>28.8362588753597</v>
+        <v>43.19811645816949</v>
       </c>
       <c r="M29" t="n">
-        <v>19.02070758992403</v>
+        <v>9.315857300585355</v>
       </c>
       <c r="N29" t="n">
-        <v>13.59724569632686</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>9.161922983629779</v>
@@ -10194,7 +10194,7 @@
         <v>24.54878065809741</v>
       </c>
       <c r="L30" t="n">
-        <v>4.377951795212873</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10270,22 +10270,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>60.67557455063191</v>
+        <v>74.45715505938877</v>
       </c>
       <c r="L31" t="n">
-        <v>66.36011327921037</v>
+        <v>61.79782667156749</v>
       </c>
       <c r="M31" t="n">
-        <v>46.72338342663512</v>
+        <v>61.08524100944491</v>
       </c>
       <c r="N31" t="n">
-        <v>56.59965513660633</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O31" t="n">
-        <v>73.47723625485322</v>
+        <v>69.67956153369327</v>
       </c>
       <c r="P31" t="n">
-        <v>85.51251264654897</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10349,25 +10349,25 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28984570098882</v>
+        <v>67.65170328379861</v>
       </c>
       <c r="L32" t="n">
-        <v>28.8362588753597</v>
+        <v>43.19811645816949</v>
       </c>
       <c r="M32" t="n">
-        <v>19.02070758992403</v>
+        <v>13.87814390822823</v>
       </c>
       <c r="N32" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166915</v>
       </c>
       <c r="O32" t="n">
-        <v>28.08606717408244</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P32" t="n">
         <v>42.66898511507466</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.8615031285407</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>4.377951795212863</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>50.42343072191045</v>
@@ -10507,22 +10507,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>78.83510685460163</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L34" t="n">
-        <v>66.36011327921037</v>
+        <v>61.21754959751456</v>
       </c>
       <c r="M34" t="n">
-        <v>65.64752761708779</v>
+        <v>61.08524100944491</v>
       </c>
       <c r="N34" t="n">
-        <v>37.67551094615366</v>
+        <v>52.03736852896346</v>
       </c>
       <c r="O34" t="n">
-        <v>55.31770395088348</v>
+        <v>69.67956153369327</v>
       </c>
       <c r="P34" t="n">
-        <v>85.51251264654897</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10586,25 +10586,25 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K35" t="n">
-        <v>67.65170328379861</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L35" t="n">
         <v>28.8362588753597</v>
       </c>
       <c r="M35" t="n">
-        <v>14.45842098228115</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N35" t="n">
-        <v>9.219293901113991</v>
+        <v>5.237284367524037</v>
       </c>
       <c r="O35" t="n">
-        <v>9.161922983629779</v>
+        <v>18.56555169717378</v>
       </c>
       <c r="P35" t="n">
-        <v>42.66898511507466</v>
+        <v>52.46855609024158</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.06382840738075</v>
+        <v>90.50154179973788</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10744,16 +10744,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>75.0374321334417</v>
+        <v>70.47514552579882</v>
       </c>
       <c r="L37" t="n">
-        <v>61.21754959751457</v>
+        <v>57.23554006392462</v>
       </c>
       <c r="M37" t="n">
-        <v>61.08524100944491</v>
+        <v>56.52295440180204</v>
       </c>
       <c r="N37" t="n">
-        <v>52.03736852896346</v>
+        <v>47.07913965969767</v>
       </c>
       <c r="O37" t="n">
         <v>55.31770395088348</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>84.11432969445627</v>
+        <v>79.5520430868134</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28984570098882</v>
+        <v>63.08941667615574</v>
       </c>
       <c r="L38" t="n">
-        <v>28.8362588753597</v>
+        <v>38.23988758890371</v>
       </c>
       <c r="M38" t="n">
         <v>0.09656339947136416</v>
       </c>
       <c r="N38" t="n">
-        <v>9.219293901113993</v>
+        <v>5.23728436752404</v>
       </c>
       <c r="O38" t="n">
-        <v>23.52378056643957</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P38" t="n">
         <v>42.66898511507466</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.06382840738075</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10981,22 +10981,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>75.0374321334417</v>
+        <v>70.47514552579882</v>
       </c>
       <c r="L40" t="n">
-        <v>61.79782667156749</v>
+        <v>57.23554006392462</v>
       </c>
       <c r="M40" t="n">
-        <v>61.08524100944491</v>
+        <v>56.52295440180204</v>
       </c>
       <c r="N40" t="n">
-        <v>37.67551094615366</v>
+        <v>47.07913965969767</v>
       </c>
       <c r="O40" t="n">
         <v>55.31770395088348</v>
       </c>
       <c r="P40" t="n">
-        <v>80.36994896485317</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11066,16 +11066,16 @@
         <v>28.8362588753597</v>
       </c>
       <c r="M41" t="n">
-        <v>14.45842098228115</v>
+        <v>9.50019211301537</v>
       </c>
       <c r="N41" t="n">
-        <v>9.219293901113993</v>
+        <v>5.23728436752404</v>
       </c>
       <c r="O41" t="n">
-        <v>23.52378056643957</v>
+        <v>18.96149395879669</v>
       </c>
       <c r="P41" t="n">
-        <v>57.03084269788445</v>
+        <v>52.46855609024158</v>
       </c>
       <c r="Q41" t="n">
         <v>80.70197082457096</v>
@@ -11218,16 +11218,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>75.0374321334417</v>
+        <v>70.07920326417592</v>
       </c>
       <c r="L43" t="n">
-        <v>61.79782667156749</v>
+        <v>57.23554006392462</v>
       </c>
       <c r="M43" t="n">
-        <v>61.08524100944491</v>
+        <v>56.52295440180204</v>
       </c>
       <c r="N43" t="n">
-        <v>51.45709145491053</v>
+        <v>47.47508192132058</v>
       </c>
       <c r="O43" t="n">
         <v>55.31770395088348</v>
@@ -11300,10 +11300,10 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L44" t="n">
-        <v>28.83625887535973</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09656339947139259</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11458,13 +11458,13 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L46" t="n">
-        <v>47.43596908875769</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M46" t="n">
         <v>46.72338342663512</v>
       </c>
       <c r="N46" t="n">
-        <v>37.67551094615368</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O46" t="n">
         <v>55.31770395088348</v>
@@ -22568,7 +22568,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22796,13 +22796,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>414.645980412892</v>
+        <v>414.6227105187393</v>
       </c>
       <c r="H5" t="n">
-        <v>332.7487884424207</v>
+        <v>332.5104756389292</v>
       </c>
       <c r="I5" t="n">
-        <v>185.1562613861815</v>
+        <v>184.2591487918589</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22829,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>108.614099617376</v>
+        <v>107.1523721288054</v>
       </c>
       <c r="S5" t="n">
-        <v>194.0542171188823</v>
+        <v>193.5239544058773</v>
       </c>
       <c r="T5" t="n">
-        <v>220.2208953490625</v>
+        <v>220.119031387409</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2931123396571</v>
+        <v>251.2912507481248</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22875,13 +22875,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.992121134402</v>
+        <v>136.9796706433938</v>
       </c>
       <c r="H6" t="n">
-        <v>108.8416983793185</v>
+        <v>108.7214528477391</v>
       </c>
       <c r="I6" t="n">
-        <v>77.29812922796052</v>
+        <v>76.86946100684415</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,16 +22908,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>78.34045615345551</v>
+        <v>77.56743356261178</v>
       </c>
       <c r="S6" t="n">
-        <v>165.156143989783</v>
+        <v>164.924881580047</v>
       </c>
       <c r="T6" t="n">
-        <v>198.7483561050184</v>
+        <v>198.6981718890686</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9182639211848</v>
+        <v>225.9174448099342</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22954,16 +22954,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.6963807320633</v>
+        <v>167.6859426586411</v>
       </c>
       <c r="H7" t="n">
-        <v>159.6079229018506</v>
+        <v>159.5151189399696</v>
       </c>
       <c r="I7" t="n">
-        <v>146.5910907807466</v>
+        <v>146.2771894454684</v>
       </c>
       <c r="J7" t="n">
-        <v>72.53105723051166</v>
+        <v>71.79308543956267</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22984,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.49342554506843</v>
+        <v>60.61937923332468</v>
       </c>
       <c r="R7" t="n">
-        <v>164.0471658666959</v>
+        <v>163.5778321290035</v>
       </c>
       <c r="S7" t="n">
-        <v>218.8825474296981</v>
+        <v>218.7006402774223</v>
       </c>
       <c r="T7" t="n">
-        <v>226.6868498427735</v>
+        <v>226.6422508017878</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3029603405057</v>
+        <v>286.3023909910463</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23267,13 +23267,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>402.8575836976996</v>
       </c>
       <c r="G11" t="n">
-        <v>413.9914553764875</v>
+        <v>409.4291687688446</v>
       </c>
       <c r="H11" t="n">
-        <v>322.0271718693308</v>
+        <v>321.4833473056998</v>
       </c>
       <c r="I11" t="n">
         <v>155.3603983125523</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>62.93700469168593</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S11" t="n">
-        <v>174.5769412441708</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T11" t="n">
         <v>217.3557120022016</v>
@@ -23346,16 +23346,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>141.050750349372</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>132.0796327584602</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8971999567888</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I12" t="n">
-        <v>60.67845717669304</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.59722706556381</v>
+        <v>52.03494045792093</v>
       </c>
       <c r="S12" t="n">
-        <v>158.6512997408977</v>
+        <v>154.0890131332548</v>
       </c>
       <c r="T12" t="n">
-        <v>197.336797223147</v>
+        <v>192.7745106155041</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8952243311651</v>
+        <v>221.8767622871533</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23437,7 +23437,7 @@
         <v>137.761816287615</v>
       </c>
       <c r="J13" t="n">
-        <v>47.21143454878033</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>146.2836725955014</v>
       </c>
       <c r="S13" t="n">
-        <v>209.7474834499749</v>
+        <v>209.2036588863439</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4323882309924</v>
+        <v>221.4139261869805</v>
       </c>
       <c r="U13" t="n">
         <v>286.286945936951</v>
@@ -23513,7 +23513,7 @@
         <v>326.0456339133427</v>
       </c>
       <c r="I14" t="n">
-        <v>155.9042228761834</v>
+        <v>155.3603983125523</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>62.93700469168593</v>
+        <v>63.48082925531696</v>
       </c>
       <c r="S14" t="n">
-        <v>174.5769412441708</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T14" t="n">
         <v>212.7934253945587</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2407503367447</v>
+        <v>246.6784637291018</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>52.03494045792093</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S15" t="n">
-        <v>154.0890131332548</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T15" t="n">
-        <v>192.7745106155041</v>
+        <v>193.3183351791351</v>
       </c>
       <c r="U15" t="n">
-        <v>221.8767622871533</v>
+        <v>221.3329377235222</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>228.2383005417824</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1326965532767</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,7 +23671,7 @@
         <v>156.9975751224423</v>
       </c>
       <c r="I16" t="n">
-        <v>133.1995296799722</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J16" t="n">
         <v>47.21143454878033</v>
@@ -23695,13 +23695,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.90864702141808</v>
+        <v>32.34636041377521</v>
       </c>
       <c r="R16" t="n">
-        <v>146.8274971591324</v>
+        <v>146.2836725955014</v>
       </c>
       <c r="S16" t="n">
-        <v>209.2036588863439</v>
+        <v>209.7474834499749</v>
       </c>
       <c r="T16" t="n">
         <v>225.4323882309924</v>
@@ -23744,13 +23744,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.9729933324756</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H17" t="n">
         <v>321.4833473056998</v>
       </c>
       <c r="I17" t="n">
-        <v>155.3603983125523</v>
+        <v>155.9042228761834</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>67.4992912993288</v>
+        <v>62.93700469168593</v>
       </c>
       <c r="S17" t="n">
         <v>174.5769412441708</v>
@@ -23808,13 +23808,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>161.9708970422245</v>
       </c>
       <c r="C18" t="n">
-        <v>168.6900369443039</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>142.8827789569959</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23862,7 +23862,7 @@
         <v>158.6512997408977</v>
       </c>
       <c r="T18" t="n">
-        <v>192.7745106155041</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U18" t="n">
         <v>225.8952243311651</v>
@@ -23874,7 +23874,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>201.2106985958346</v>
+        <v>201.7545231594656</v>
       </c>
       <c r="Y18" t="n">
         <v>201.1204091696615</v>
@@ -23932,22 +23932,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.90864702141808</v>
+        <v>32.34636041377521</v>
       </c>
       <c r="R19" t="n">
         <v>146.2836725955014</v>
       </c>
       <c r="S19" t="n">
-        <v>213.7659454939867</v>
+        <v>209.2036588863439</v>
       </c>
       <c r="T19" t="n">
-        <v>220.8701016233495</v>
+        <v>221.4139261869805</v>
       </c>
       <c r="U19" t="n">
-        <v>281.7246593293082</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V19" t="n">
-        <v>248.1191812798162</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>363.8096974730279</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23987,7 +23987,7 @@
         <v>326.0456339133427</v>
       </c>
       <c r="I20" t="n">
-        <v>159.9226849201952</v>
+        <v>147.2727607612563</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24017,25 @@
         <v>67.4992912993288</v>
       </c>
       <c r="S20" t="n">
-        <v>179.1392278518137</v>
+        <v>164.7773702690039</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3557120022016</v>
+        <v>202.9938544193918</v>
       </c>
       <c r="U20" t="n">
-        <v>232.316606146292</v>
+        <v>236.8788927539349</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>332.5725825144623</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.3137944656009</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>156.040112785365</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24063,7 +24063,7 @@
         <v>136.6419193661031</v>
       </c>
       <c r="H21" t="n">
-        <v>105.4594865644317</v>
+        <v>92.80956240549285</v>
       </c>
       <c r="I21" t="n">
         <v>65.24074378433592</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>56.59722706556381</v>
+        <v>42.23536948275402</v>
       </c>
       <c r="S21" t="n">
-        <v>158.6512997408977</v>
+        <v>144.2894421580879</v>
       </c>
       <c r="T21" t="n">
-        <v>178.4126530326943</v>
+        <v>182.9749396403372</v>
       </c>
       <c r="U21" t="n">
         <v>225.8952243311651</v>
@@ -24108,10 +24108,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>232.7708389704669</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>186.8488410130248</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.1635939789866</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>135.9655488592735</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>148.4786391431086</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H22" t="n">
-        <v>138.0734309319896</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I22" t="n">
         <v>137.761816287615</v>
@@ -24169,13 +24169,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>36.90864702141808</v>
+        <v>22.5467894386083</v>
       </c>
       <c r="R22" t="n">
-        <v>131.9218150126916</v>
+        <v>136.4841016203345</v>
       </c>
       <c r="S22" t="n">
-        <v>213.7659454939867</v>
+        <v>199.404087911177</v>
       </c>
       <c r="T22" t="n">
         <v>225.4323882309924</v>
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>368.3719840806708</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>340.3211840378732</v>
       </c>
       <c r="E23" t="n">
-        <v>363.0062258818091</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>394.2261215827726</v>
       </c>
       <c r="G23" t="n">
-        <v>395.0673111860348</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H23" t="n">
         <v>326.0456339133427</v>
@@ -24254,7 +24254,7 @@
         <v>67.4992912993288</v>
       </c>
       <c r="S23" t="n">
-        <v>162.470841648863</v>
+        <v>164.7773702690039</v>
       </c>
       <c r="T23" t="n">
         <v>217.3557120022016</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>367.3137944656009</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24297,13 +24297,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>119.9735331631524</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H24" t="n">
-        <v>86.53534237397905</v>
+        <v>92.80956240549285</v>
       </c>
       <c r="I24" t="n">
-        <v>65.24074378433592</v>
+        <v>50.87888620152613</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24336,10 +24336,10 @@
         <v>158.6512997408977</v>
       </c>
       <c r="T24" t="n">
-        <v>178.4126530326943</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U24" t="n">
-        <v>206.9710801407124</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,10 +24348,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>191.4111276206677</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>191.3208381944946</v>
       </c>
     </row>
     <row r="25">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>165.4701225991275</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>152.884963515818</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,10 +24379,10 @@
         <v>167.4027833335613</v>
       </c>
       <c r="H25" t="n">
-        <v>140.3291889194916</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I25" t="n">
-        <v>118.8376720971624</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J25" t="n">
         <v>51.77372115642321</v>
@@ -24409,13 +24409,13 @@
         <v>36.90864702141808</v>
       </c>
       <c r="R25" t="n">
-        <v>131.9218150126916</v>
+        <v>136.4841016203345</v>
       </c>
       <c r="S25" t="n">
         <v>213.7659454939867</v>
       </c>
       <c r="T25" t="n">
-        <v>206.5082440405397</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U25" t="n">
         <v>286.286945936951</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>205.9347291931559</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>363.8096974730279</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,16 +24449,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>367.568512489452</v>
       </c>
       <c r="F26" t="n">
-        <v>387.9519015512587</v>
+        <v>392.5141881589017</v>
       </c>
       <c r="G26" t="n">
-        <v>395.0673111860348</v>
+        <v>399.6295977936777</v>
       </c>
       <c r="H26" t="n">
-        <v>309.377247710392</v>
+        <v>313.3957097544038</v>
       </c>
       <c r="I26" t="n">
         <v>159.9226849201952</v>
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>156.040112785365</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24570,22 +24570,22 @@
         <v>56.59722706556381</v>
       </c>
       <c r="S27" t="n">
-        <v>139.727155550445</v>
+        <v>144.2894421580879</v>
       </c>
       <c r="T27" t="n">
-        <v>197.336797223147</v>
+        <v>182.9749396403372</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8952243311651</v>
+        <v>211.5333667483553</v>
       </c>
       <c r="V27" t="n">
-        <v>213.8764429589726</v>
+        <v>220.1506629904864</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>186.8488410130248</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>148.4786391431086</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H28" t="n">
         <v>156.9975751224423</v>
       </c>
       <c r="I28" t="n">
-        <v>118.8376720971624</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J28" t="n">
         <v>51.77372115642321</v>
@@ -24649,25 +24649,25 @@
         <v>150.8459592031442</v>
       </c>
       <c r="S28" t="n">
-        <v>197.097559291036</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T28" t="n">
         <v>225.4323882309924</v>
       </c>
       <c r="U28" t="n">
-        <v>267.3628017464983</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>237.7757857410182</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>272.1611407537812</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>211.3477978062274</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>205.9347291931559</v>
       </c>
     </row>
     <row r="29">
@@ -24683,19 +24683,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>342.0331174617441</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>367.568512489452</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>392.5141881589017</v>
       </c>
       <c r="G29" t="n">
-        <v>413.9914553764875</v>
+        <v>399.6295977936777</v>
       </c>
       <c r="H29" t="n">
-        <v>307.12148972289</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I29" t="n">
         <v>159.9226849201952</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>50.8309050963781</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S29" t="n">
         <v>179.1392278518137</v>
@@ -24737,7 +24737,7 @@
         <v>251.2407503367447</v>
       </c>
       <c r="V29" t="n">
-        <v>308.8281142796823</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.3137944656009</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,13 +24756,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>153.8832594909285</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>130.7766793616881</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24813,19 +24813,19 @@
         <v>197.336797223147</v>
       </c>
       <c r="U30" t="n">
-        <v>206.9710801407124</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V30" t="n">
-        <v>213.8764429589726</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>232.7708389704669</v>
+        <v>237.3331255781098</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>191.4111276206677</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>191.3208381944946</v>
       </c>
     </row>
     <row r="31">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>160.9078359914846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>148.3226769081752</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>129.6913288277597</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>132.0721050637594</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4027833335613</v>
+        <v>153.0409257507515</v>
       </c>
       <c r="H31" t="n">
-        <v>156.9975751224423</v>
+        <v>142.6357175396325</v>
       </c>
       <c r="I31" t="n">
         <v>137.761816287615</v>
@@ -24895,13 +24895,13 @@
         <v>286.286945936951</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>239.4877191648891</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>209.0412691860865</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24926,16 +24926,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>387.9519015512587</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>395.0673111860348</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H32" t="n">
-        <v>326.0456339133427</v>
+        <v>313.3957097544038</v>
       </c>
       <c r="I32" t="n">
-        <v>140.9985407297425</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,25 +24962,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>67.4992912993288</v>
+        <v>53.13743371651901</v>
       </c>
       <c r="S32" t="n">
         <v>179.1392278518137</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3557120022016</v>
+        <v>202.9938544193918</v>
       </c>
       <c r="U32" t="n">
         <v>251.2407503367447</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>313.3904008873251</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>353.0627144755184</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24999,7 +24999,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>128.5209213741861</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25014,7 +25014,7 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I33" t="n">
-        <v>48.57235758138522</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,25 +25044,25 @@
         <v>56.59722706556381</v>
       </c>
       <c r="S33" t="n">
-        <v>158.6512997408977</v>
+        <v>146.0013755819588</v>
       </c>
       <c r="T33" t="n">
-        <v>178.4126530326943</v>
+        <v>182.9749396403372</v>
       </c>
       <c r="U33" t="n">
         <v>225.8952243311651</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>218.4387295666155</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>191.4111276206677</v>
       </c>
       <c r="Y33" t="n">
-        <v>186.7585515868517</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25075,16 +25075,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>148.3226769081752</v>
+        <v>152.884963515818</v>
       </c>
       <c r="D34" t="n">
-        <v>129.6913288277597</v>
+        <v>134.2536154354026</v>
       </c>
       <c r="E34" t="n">
-        <v>127.5098184561165</v>
+        <v>132.0721050637594</v>
       </c>
       <c r="F34" t="n">
-        <v>128.7526618199805</v>
+        <v>132.7711238639924</v>
       </c>
       <c r="G34" t="n">
         <v>167.4027833335613</v>
@@ -25169,10 +25169,10 @@
         <v>413.9914553764875</v>
       </c>
       <c r="H35" t="n">
-        <v>311.6837763305329</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I35" t="n">
-        <v>145.5608273373854</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,22 +25205,22 @@
         <v>179.1392278518137</v>
       </c>
       <c r="T35" t="n">
-        <v>204.7057878432627</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U35" t="n">
-        <v>236.8788927539349</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>317.952687494968</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>339.4413977422461</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>359.9315297033021</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>377.6064765411266</v>
       </c>
     </row>
     <row r="36">
@@ -25233,16 +25233,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>160.0585748293769</v>
+        <v>162.9089280131488</v>
       </c>
       <c r="D36" t="n">
-        <v>133.083207981829</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>143.2832228725912</v>
+        <v>147.845509480234</v>
       </c>
       <c r="F36" t="n">
-        <v>130.7073548105741</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.6419193661031</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>56.59722706556381</v>
+        <v>46.7976560903969</v>
       </c>
       <c r="S36" t="n">
-        <v>158.6512997408977</v>
+        <v>150.0198376259707</v>
       </c>
       <c r="T36" t="n">
         <v>197.336797223147</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>132.7711238639924</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>153.0409257507515</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H37" t="n">
-        <v>142.6357175396325</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I37" t="n">
         <v>137.761816287615</v>
@@ -25354,13 +25354,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.54678943860829</v>
+        <v>27.10907604625117</v>
       </c>
       <c r="R37" t="n">
-        <v>150.8459592031442</v>
+        <v>141.0463882279773</v>
       </c>
       <c r="S37" t="n">
-        <v>213.7659454939867</v>
+        <v>203.9663745188198</v>
       </c>
       <c r="T37" t="n">
         <v>225.4323882309924</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>209.9531912371678</v>
       </c>
     </row>
     <row r="38">
@@ -25406,10 +25406,10 @@
         <v>413.9914553764875</v>
       </c>
       <c r="H38" t="n">
-        <v>326.0456339133427</v>
+        <v>317.4141717984157</v>
       </c>
       <c r="I38" t="n">
-        <v>159.9226849201952</v>
+        <v>150.1231139450283</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,19 +25436,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>67.4992912993288</v>
+        <v>57.69972032416189</v>
       </c>
       <c r="S38" t="n">
-        <v>164.7773702690039</v>
+        <v>169.3396568766468</v>
       </c>
       <c r="T38" t="n">
-        <v>202.9938544193918</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U38" t="n">
-        <v>236.8788927539349</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V38" t="n">
-        <v>315.102334311196</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>160.0585748293769</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>133.083207981829</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>143.2832228725912</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>56.59722706556381</v>
+        <v>46.7976560903969</v>
       </c>
       <c r="S39" t="n">
         <v>158.6512997408977</v>
       </c>
       <c r="T39" t="n">
-        <v>182.9749396403372</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U39" t="n">
         <v>225.8952243311651</v>
@@ -25530,13 +25530,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>243.0635210459926</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>195.9734142283106</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>195.8831248021374</v>
       </c>
     </row>
     <row r="40">
@@ -25552,10 +25552,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>139.9840109032853</v>
       </c>
       <c r="E40" t="n">
-        <v>132.0721050637594</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>167.4027833335613</v>
       </c>
       <c r="H40" t="n">
-        <v>142.6357175396325</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I40" t="n">
-        <v>123.3999587048052</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J40" t="n">
         <v>51.77372115642321</v>
@@ -25591,13 +25591,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.25872286247923</v>
+        <v>27.10907604625117</v>
       </c>
       <c r="R40" t="n">
-        <v>150.8459592031442</v>
+        <v>141.0463882279773</v>
       </c>
       <c r="S40" t="n">
-        <v>213.7659454939867</v>
+        <v>203.9663745188198</v>
       </c>
       <c r="T40" t="n">
         <v>225.4323882309924</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.9914553764875</v>
+        <v>404.1918844013206</v>
       </c>
       <c r="H41" t="n">
-        <v>326.0456339133427</v>
+        <v>316.2460629381758</v>
       </c>
       <c r="I41" t="n">
-        <v>159.9226849201952</v>
+        <v>150.1231139450283</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,22 +25679,22 @@
         <v>179.1392278518137</v>
       </c>
       <c r="T41" t="n">
-        <v>204.7057878432627</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U41" t="n">
-        <v>236.8788927539349</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3904008873251</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>334.8791111346032</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>377.6064765411266</v>
       </c>
     </row>
     <row r="42">
@@ -25716,16 +25716,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>135.269641418217</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6419193661031</v>
+        <v>126.8423483909362</v>
       </c>
       <c r="H42" t="n">
-        <v>105.4594865644317</v>
+        <v>95.6599155892648</v>
       </c>
       <c r="I42" t="n">
-        <v>65.24074378433592</v>
+        <v>56.6092816694089</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25764,16 +25764,16 @@
         <v>225.8952243311651</v>
       </c>
       <c r="V42" t="n">
-        <v>218.4387295666155</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>237.3331255781098</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>191.4111276206677</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.0327716183655</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>165.4701225991275</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>154.596896939689</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.90864702141808</v>
+        <v>27.10907604625117</v>
       </c>
       <c r="R43" t="n">
         <v>150.8459592031442</v>
@@ -25837,22 +25837,22 @@
         <v>213.7659454939867</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4323882309924</v>
+        <v>216.8009261160654</v>
       </c>
       <c r="U43" t="n">
-        <v>286.286945936951</v>
+        <v>276.4873749617842</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>242.3380723486611</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1611407537812</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>204.222795769285</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>343838.4701839528</v>
+        <v>343504.5416255969</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>339906.3690821279</v>
+        <v>339906.369082128</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>339906.3690821279</v>
+        <v>339906.3690821277</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>352563.0276367996</v>
+        <v>348507.5952958924</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>352563.0276367994</v>
+        <v>348507.5952958924</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>352563.0276367994</v>
+        <v>348507.5952958923</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>352563.0276367993</v>
+        <v>348507.5952958922</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>352563.0276367993</v>
+        <v>348507.5952958923</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>348507.5952958924</v>
+        <v>344503.2098729177</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>348507.5952958924</v>
+        <v>344503.2098729178</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>348507.5952958923</v>
+        <v>344503.2098729177</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>87284.12715902133</v>
       </c>
       <c r="C2" t="n">
-        <v>91393.92080094962</v>
+        <v>91551.12515552527</v>
       </c>
       <c r="D2" t="n">
         <v>94039.92874909588</v>
       </c>
       <c r="E2" t="n">
-        <v>96849.68443571799</v>
+        <v>96849.68443571801</v>
       </c>
       <c r="F2" t="n">
         <v>96849.68443571799</v>
       </c>
       <c r="G2" t="n">
-        <v>96849.68443571802</v>
+        <v>96849.68443571801</v>
       </c>
       <c r="H2" t="n">
-        <v>100104.6374551083</v>
+        <v>99070.64665807897</v>
       </c>
       <c r="I2" t="n">
-        <v>100104.6374551083</v>
+        <v>99070.64665807896</v>
       </c>
       <c r="J2" t="n">
-        <v>100104.6374551083</v>
+        <v>99070.64665807899</v>
       </c>
       <c r="K2" t="n">
-        <v>100104.6374551084</v>
+        <v>99070.64665807896</v>
       </c>
       <c r="L2" t="n">
-        <v>100104.6374551083</v>
+        <v>99070.64665807897</v>
       </c>
       <c r="M2" t="n">
-        <v>99070.64665807897</v>
+        <v>98036.65586104963</v>
       </c>
       <c r="N2" t="n">
-        <v>99070.64665807897</v>
+        <v>98036.65586104963</v>
       </c>
       <c r="O2" t="n">
-        <v>99070.64665807897</v>
+        <v>98036.65586104963</v>
       </c>
       <c r="P2" t="n">
-        <v>95815.69363868865</v>
+        <v>95815.69363868867</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>22175.99473096512</v>
       </c>
       <c r="C3" t="n">
-        <v>127807.4949892999</v>
+        <v>133078.411012919</v>
       </c>
       <c r="D3" t="n">
-        <v>83438.75743256233</v>
+        <v>78481.50247874965</v>
       </c>
       <c r="E3" t="n">
         <v>53892.73527695299</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3874.958432560327</v>
+        <v>2644.01244523881</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55206.51629369851</v>
+        <v>56141.10260490043</v>
       </c>
       <c r="C4" t="n">
-        <v>34794.94685274329</v>
+        <v>34519.49422569916</v>
       </c>
       <c r="D4" t="n">
-        <v>20653.20901911422</v>
+        <v>21002.84539770707</v>
       </c>
       <c r="E4" t="n">
-        <v>12825.58408231846</v>
+        <v>13042.64030532368</v>
       </c>
       <c r="F4" t="n">
-        <v>12825.58408231846</v>
+        <v>13042.64030532368</v>
       </c>
       <c r="G4" t="n">
-        <v>12825.58408231846</v>
+        <v>13042.64030532368</v>
       </c>
       <c r="H4" t="n">
-        <v>14481.4096079503</v>
+        <v>14156.61673143901</v>
       </c>
       <c r="I4" t="n">
-        <v>14481.4096079503</v>
+        <v>14156.61673143901</v>
       </c>
       <c r="J4" t="n">
-        <v>14481.4096079503</v>
+        <v>14156.61673143901</v>
       </c>
       <c r="K4" t="n">
-        <v>14481.4096079503</v>
+        <v>14156.61673143901</v>
       </c>
       <c r="L4" t="n">
-        <v>14481.4096079503</v>
+        <v>14156.61673143901</v>
       </c>
       <c r="M4" t="n">
-        <v>13921.1574984316</v>
+        <v>13637.99405469379</v>
       </c>
       <c r="N4" t="n">
-        <v>13921.1574984316</v>
+        <v>13637.99405469379</v>
       </c>
       <c r="O4" t="n">
-        <v>13921.1574984316</v>
+        <v>13637.99405469379</v>
       </c>
       <c r="P4" t="n">
-        <v>12413.73504192751</v>
+        <v>12623.88608241976</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>34129.29174257201</v>
       </c>
       <c r="C5" t="n">
-        <v>37189.02957618838</v>
+        <v>37315.21639470503</v>
       </c>
       <c r="D5" t="n">
         <v>39312.96135688073</v>
@@ -26485,28 +26485,28 @@
         <v>7388.142243095836</v>
       </c>
       <c r="H5" t="n">
-        <v>8261.34318413067</v>
+        <v>7983.956158385983</v>
       </c>
       <c r="I5" t="n">
-        <v>8261.34318413067</v>
+        <v>7983.956158385983</v>
       </c>
       <c r="J5" t="n">
-        <v>8261.34318413067</v>
+        <v>7983.956158385983</v>
       </c>
       <c r="K5" t="n">
-        <v>8261.34318413067</v>
+        <v>7983.956158385983</v>
       </c>
       <c r="L5" t="n">
-        <v>8261.34318413067</v>
+        <v>7983.956158385983</v>
       </c>
       <c r="M5" t="n">
-        <v>7983.956158385983</v>
+        <v>7706.569132641297</v>
       </c>
       <c r="N5" t="n">
-        <v>7983.956158385983</v>
+        <v>7706.569132641297</v>
       </c>
       <c r="O5" t="n">
-        <v>7983.956158385983</v>
+        <v>7706.569132641297</v>
       </c>
       <c r="P5" t="n">
         <v>7110.755217351149</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24227.67560821431</v>
+        <v>-25162.26191941623</v>
       </c>
       <c r="C6" t="n">
-        <v>-108397.550617282</v>
+        <v>-113361.9964777979</v>
       </c>
       <c r="D6" t="n">
-        <v>-49364.9990594614</v>
+        <v>-44757.38048424158</v>
       </c>
       <c r="E6" t="n">
-        <v>22743.22283335072</v>
+        <v>22526.16661034551</v>
       </c>
       <c r="F6" t="n">
-        <v>76635.95811030371</v>
+        <v>76418.90188729849</v>
       </c>
       <c r="G6" t="n">
-        <v>76635.95811030373</v>
+        <v>76418.9018872985</v>
       </c>
       <c r="H6" t="n">
-        <v>73486.92623046704</v>
+        <v>74286.06132301516</v>
       </c>
       <c r="I6" t="n">
-        <v>77361.88466302735</v>
+        <v>76930.07376825396</v>
       </c>
       <c r="J6" t="n">
-        <v>77361.88466302736</v>
+        <v>76930.07376825399</v>
       </c>
       <c r="K6" t="n">
-        <v>77361.88466302739</v>
+        <v>76930.07376825396</v>
       </c>
       <c r="L6" t="n">
-        <v>77361.88466302736</v>
+        <v>76930.07376825398</v>
       </c>
       <c r="M6" t="n">
-        <v>77165.53300126138</v>
+        <v>76692.09267371455</v>
       </c>
       <c r="N6" t="n">
-        <v>77165.53300126138</v>
+        <v>76692.09267371455</v>
       </c>
       <c r="O6" t="n">
-        <v>77165.53300126138</v>
+        <v>76692.09267371455</v>
       </c>
       <c r="P6" t="n">
-        <v>76291.20337941</v>
+        <v>76081.05233891777</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>163.3683291829533</v>
+        <v>169.1567153534418</v>
       </c>
       <c r="D3" t="n">
         <v>260.7963925174648</v>
@@ -26805,28 +26805,28 @@
         <v>4.562286607642875</v>
       </c>
       <c r="H4" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="I4" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="J4" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="K4" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="L4" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="M4" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="N4" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="O4" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>140.354946496164</v>
+        <v>146.1433326666524</v>
       </c>
       <c r="D3" t="n">
-        <v>97.42806333451149</v>
+        <v>91.63967716402307</v>
       </c>
       <c r="E3" t="n">
         <v>65.38503947111997</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
     </row>
   </sheetData>
@@ -31039,19 +31039,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367561</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887681</v>
       </c>
       <c r="I2" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760345</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L2" t="n">
         <v>14.5997362345548</v>
@@ -31069,10 +31069,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544806</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679518</v>
       </c>
       <c r="S2" t="n">
         <v>2.10821088633251</v>
@@ -31081,7 +31081,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294047</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31127,10 +31127,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750213</v>
       </c>
       <c r="L3" t="n">
         <v>10.74790103688213</v>
@@ -31139,7 +31139,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O3" t="n">
         <v>11.77742425104019</v>
@@ -31148,19 +31148,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210533</v>
       </c>
       <c r="R3" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523842</v>
       </c>
       <c r="T3" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,10 +31197,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I4" t="n">
         <v>1.248004425047526</v>
@@ -31209,37 +31209,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166679</v>
+        <v>4.82149230716668</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471355</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988659</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150828</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131886</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R4" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750019</v>
       </c>
       <c r="T4" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6567571022430279</v>
+        <v>0.6800269963957453</v>
       </c>
       <c r="H5" t="n">
-        <v>6.726013673346412</v>
+        <v>6.964326476837928</v>
       </c>
       <c r="I5" t="n">
-        <v>25.31962818422436</v>
+        <v>26.216740778547</v>
       </c>
       <c r="J5" t="n">
-        <v>55.74143810649924</v>
+        <v>57.71644128534344</v>
       </c>
       <c r="K5" t="n">
-        <v>83.54196624444663</v>
+        <v>86.50198404277535</v>
       </c>
       <c r="L5" t="n">
-        <v>103.6411964122167</v>
+        <v>107.3133602337217</v>
       </c>
       <c r="M5" t="n">
-        <v>115.3208005292312</v>
+        <v>119.4067903308745</v>
       </c>
       <c r="N5" t="n">
-        <v>117.1868116459792</v>
+        <v>121.3389170343839</v>
       </c>
       <c r="O5" t="n">
-        <v>110.6561832105501</v>
+        <v>114.5768985889737</v>
       </c>
       <c r="P5" t="n">
-        <v>94.44249224892529</v>
+        <v>97.78873211545374</v>
       </c>
       <c r="Q5" t="n">
-        <v>70.92237852484683</v>
+        <v>73.43526530703109</v>
       </c>
       <c r="R5" t="n">
-        <v>41.25501832377364</v>
+        <v>42.71674581234427</v>
       </c>
       <c r="S5" t="n">
-        <v>14.96585246736301</v>
+        <v>15.49611518036806</v>
       </c>
       <c r="T5" t="n">
-        <v>2.874954215068856</v>
+        <v>2.976818176722376</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05254056817944222</v>
+        <v>0.05440215971165961</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3513960288086166</v>
+        <v>0.363846519816837</v>
       </c>
       <c r="H6" t="n">
-        <v>3.393745857177955</v>
+        <v>3.513991388757348</v>
       </c>
       <c r="I6" t="n">
-        <v>12.09850362345456</v>
+        <v>12.52717184457093</v>
       </c>
       <c r="J6" t="n">
-        <v>33.19921866915092</v>
+        <v>34.37551703234424</v>
       </c>
       <c r="K6" t="n">
-        <v>56.74275259932823</v>
+        <v>58.75323386007232</v>
       </c>
       <c r="L6" t="n">
-        <v>76.29763336039721</v>
+        <v>79.00097352426543</v>
       </c>
       <c r="M6" t="n">
-        <v>89.03573940470955</v>
+        <v>92.19040986762575</v>
       </c>
       <c r="N6" t="n">
-        <v>91.39225049264103</v>
+        <v>94.6304156956957</v>
       </c>
       <c r="O6" t="n">
-        <v>83.60605427535536</v>
+        <v>86.56834280922789</v>
       </c>
       <c r="P6" t="n">
-        <v>67.10122939591908</v>
+        <v>69.47872710432216</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.85539483528937</v>
+        <v>46.44468909100537</v>
       </c>
       <c r="R6" t="n">
-        <v>21.81737799918762</v>
+        <v>22.59040059003135</v>
       </c>
       <c r="S6" t="n">
-        <v>6.527027114054782</v>
+        <v>6.758289523790806</v>
       </c>
       <c r="T6" t="n">
-        <v>1.416372589803151</v>
+        <v>1.466556805752952</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02311815979004057</v>
+        <v>0.02393727104058139</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2945986263954896</v>
+        <v>0.3050366998176818</v>
       </c>
       <c r="H7" t="n">
-        <v>2.619249605588991</v>
+        <v>2.712053567469937</v>
       </c>
       <c r="I7" t="n">
-        <v>8.859384146511633</v>
+        <v>9.173285481789925</v>
       </c>
       <c r="J7" t="n">
-        <v>20.82812288616111</v>
+        <v>21.5660946771101</v>
       </c>
       <c r="K7" t="n">
-        <v>34.22700404849414</v>
+        <v>35.43971839699976</v>
       </c>
       <c r="L7" t="n">
-        <v>43.7987812370167</v>
+        <v>45.35063808016699</v>
       </c>
       <c r="M7" t="n">
-        <v>46.17967377215842</v>
+        <v>47.81588922687534</v>
       </c>
       <c r="N7" t="n">
-        <v>45.08162434650254</v>
+        <v>46.67893425482765</v>
       </c>
       <c r="O7" t="n">
-        <v>41.64017675633703</v>
+        <v>43.11555098877563</v>
       </c>
       <c r="P7" t="n">
-        <v>35.63036477786901</v>
+        <v>36.89280231249489</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.66861770662595</v>
+        <v>25.54266401836971</v>
       </c>
       <c r="R7" t="n">
-        <v>13.24622551047355</v>
+        <v>13.71555924816595</v>
       </c>
       <c r="S7" t="n">
-        <v>5.134050607274121</v>
+        <v>5.315957759549963</v>
       </c>
       <c r="T7" t="n">
-        <v>1.258739585508001</v>
+        <v>1.303338626493731</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01606901598520854</v>
+        <v>0.01663836544460085</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L12" t="n">
-        <v>142.932331575087</v>
+        <v>143.1166663875171</v>
       </c>
       <c r="M12" t="n">
         <v>146.6963205296612</v>
@@ -31853,7 +31853,7 @@
         <v>135.9039986909762</v>
       </c>
       <c r="O12" t="n">
-        <v>147.1585310520873</v>
+        <v>146.9741962396573</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32081,13 +32081,13 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L15" t="n">
-        <v>143.1166663875171</v>
+        <v>142.932331575087</v>
       </c>
       <c r="M15" t="n">
         <v>146.6963205296612</v>
       </c>
       <c r="N15" t="n">
-        <v>135.7196638785462</v>
+        <v>135.9039986909762</v>
       </c>
       <c r="O15" t="n">
         <v>147.1585310520873</v>
@@ -32558,13 +32558,13 @@
         <v>152.335960288631</v>
       </c>
       <c r="M21" t="n">
-        <v>161.058178112471</v>
+        <v>156.4958915048281</v>
       </c>
       <c r="N21" t="n">
-        <v>150.265856273786</v>
+        <v>145.7035696661431</v>
       </c>
       <c r="O21" t="n">
-        <v>161.5203886348971</v>
+        <v>156.9581020272542</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32795,13 +32795,13 @@
         <v>152.335960288631</v>
       </c>
       <c r="M24" t="n">
-        <v>161.058178112471</v>
+        <v>156.4958915048281</v>
       </c>
       <c r="N24" t="n">
-        <v>150.265856273786</v>
+        <v>145.7035696661431</v>
       </c>
       <c r="O24" t="n">
-        <v>161.5203886348971</v>
+        <v>156.9581020272542</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33032,13 +33032,13 @@
         <v>152.335960288631</v>
       </c>
       <c r="M27" t="n">
-        <v>161.058178112471</v>
+        <v>156.4958915048281</v>
       </c>
       <c r="N27" t="n">
-        <v>150.265856273786</v>
+        <v>145.7035696661431</v>
       </c>
       <c r="O27" t="n">
-        <v>161.5203886348971</v>
+        <v>156.9581020272542</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33269,13 +33269,13 @@
         <v>152.335960288631</v>
       </c>
       <c r="M30" t="n">
-        <v>161.058178112471</v>
+        <v>156.4958915048281</v>
       </c>
       <c r="N30" t="n">
-        <v>150.265856273786</v>
+        <v>145.7035696661431</v>
       </c>
       <c r="O30" t="n">
-        <v>161.5203886348971</v>
+        <v>156.9581020272542</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33506,13 +33506,13 @@
         <v>152.335960288631</v>
       </c>
       <c r="M33" t="n">
-        <v>161.058178112471</v>
+        <v>156.4958915048281</v>
       </c>
       <c r="N33" t="n">
-        <v>150.265856273786</v>
+        <v>145.7035696661431</v>
       </c>
       <c r="O33" t="n">
-        <v>161.5203886348971</v>
+        <v>156.9581020272542</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33740,16 +33740,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L36" t="n">
-        <v>152.335960288631</v>
+        <v>148.3539507550411</v>
       </c>
       <c r="M36" t="n">
-        <v>156.4958915048281</v>
+        <v>151.5376626355623</v>
       </c>
       <c r="N36" t="n">
-        <v>145.7035696661431</v>
+        <v>141.1412830585002</v>
       </c>
       <c r="O36" t="n">
-        <v>156.9581020272542</v>
+        <v>152.3958154196114</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33977,16 +33977,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L39" t="n">
-        <v>152.335960288631</v>
+        <v>148.3539507550411</v>
       </c>
       <c r="M39" t="n">
-        <v>156.4958915048281</v>
+        <v>151.9336048971852</v>
       </c>
       <c r="N39" t="n">
-        <v>145.7035696661431</v>
+        <v>141.1412830585002</v>
       </c>
       <c r="O39" t="n">
-        <v>156.9581020272542</v>
+        <v>151.9998731579884</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34214,16 +34214,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L42" t="n">
-        <v>152.335960288631</v>
+        <v>148.3539507550411</v>
       </c>
       <c r="M42" t="n">
-        <v>156.4958915048281</v>
+        <v>151.9336048971852</v>
       </c>
       <c r="N42" t="n">
-        <v>145.7035696661431</v>
+        <v>141.1412830585002</v>
       </c>
       <c r="O42" t="n">
-        <v>156.9581020272542</v>
+        <v>151.9998731579884</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34375,7 +34375,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M44" t="n">
-        <v>230.2496698278013</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
@@ -34524,19 +34524,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J46" t="n">
-        <v>41.58545896024956</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K46" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L46" t="n">
-        <v>87.4487071924806</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M46" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N46" t="n">
-        <v>90.01003351907951</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O46" t="n">
         <v>83.13883450095931</v>
@@ -35413,22 +35413,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="N11" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="O11" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P11" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M12" t="n">
         <v>4.562286607642875</v>
@@ -35501,7 +35501,7 @@
         <v>4.562286607642875</v>
       </c>
       <c r="O12" t="n">
-        <v>4.562286607642875</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35577,10 +35577,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
+        <v>4.562286607642875</v>
+      </c>
+      <c r="O13" t="n">
         <v>4.377951795212859</v>
-      </c>
-      <c r="O13" t="n">
-        <v>4.562286607642875</v>
       </c>
       <c r="P13" t="n">
         <v>4.562286607642875</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="L14" t="n">
+        <v>4.562286607642875</v>
+      </c>
+      <c r="M14" t="n">
         <v>4.377951795212859</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>4.562286607642875</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>4.562286607642875</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M15" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="N15" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O15" t="n">
         <v>4.562286607642875</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="L16" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M16" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="N16" t="n">
-        <v>4.562286607642875</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.377951795212859</v>
+      </c>
+      <c r="L17" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4.377951795212859</v>
       </c>
       <c r="N17" t="n">
         <v>4.562286607642875</v>
@@ -36045,16 +36045,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M19" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N19" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="O19" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>4.562286607642875</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>18.15953230396973</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36127,19 +36127,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>18.92414419045267</v>
+        <v>13.78158050875686</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="Q20" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>4.377951795212873</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>13.78158050875686</v>
       </c>
       <c r="M21" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="N21" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="O21" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>13.78158050875686</v>
       </c>
       <c r="M22" t="n">
-        <v>18.15953230396973</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="N22" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="P22" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>18.15953230396973</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="L23" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>18.92414419045267</v>
+        <v>9.219293901113991</v>
       </c>
       <c r="N23" t="n">
-        <v>18.92414419045267</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>18.15953230396973</v>
+        <v>13.78158050875686</v>
       </c>
       <c r="M24" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="N24" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="O24" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="M25" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="N25" t="n">
-        <v>18.92414419045267</v>
+        <v>13.78158050875687</v>
       </c>
       <c r="O25" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>18.15953230396974</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,19 +36601,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="N26" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="O26" t="n">
-        <v>18.15953230396973</v>
+        <v>13.78158050875687</v>
       </c>
       <c r="P26" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>13.78158050875686</v>
       </c>
       <c r="M27" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="N27" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="O27" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.377951795212863</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>18.15953230396973</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="O28" t="n">
-        <v>18.92414419045267</v>
+        <v>13.78158050875687</v>
       </c>
       <c r="P28" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="K29" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="M29" t="n">
-        <v>18.92414419045267</v>
+        <v>9.219293901113991</v>
       </c>
       <c r="N29" t="n">
-        <v>18.15953230396974</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>18.15953230396973</v>
+        <v>13.78158050875686</v>
       </c>
       <c r="M30" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="N30" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="O30" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36990,22 +36990,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>13.78158050875686</v>
       </c>
       <c r="L31" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="N31" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>18.15953230396974</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="P31" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,25 +37069,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="M32" t="n">
-        <v>18.92414419045267</v>
+        <v>13.78158050875687</v>
       </c>
       <c r="N32" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="O32" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.15953230396974</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>13.78158050875686</v>
       </c>
       <c r="M33" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="N33" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="O33" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="P33" t="n">
-        <v>4.377951795212863</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>18.15953230396973</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>18.92414419045267</v>
+        <v>13.78158050875686</v>
       </c>
       <c r="M34" t="n">
-        <v>18.92414419045267</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="P34" t="n">
-        <v>18.92414419045267</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>13.78158050875687</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>9.403628713544006</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>13.78158050875686</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="M36" t="n">
-        <v>14.3618575828098</v>
+        <v>9.403628713544006</v>
       </c>
       <c r="N36" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="O36" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,16 +37464,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="L37" t="n">
-        <v>13.78158050875687</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="M37" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="N37" t="n">
-        <v>14.36185758280979</v>
+        <v>9.403628713544011</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>9.403628713544007</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>13.78158050875687</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="O38" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,16 +37625,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>13.78158050875686</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="M39" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="N39" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="O39" t="n">
-        <v>14.3618575828098</v>
+        <v>9.403628713544011</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="L40" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="M40" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>9.403628713544011</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>13.78158050875687</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37786,16 +37786,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>14.36185758280979</v>
+        <v>9.403628713544006</v>
       </c>
       <c r="N41" t="n">
-        <v>13.78158050875687</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="O41" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="P41" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>13.78158050875686</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="M42" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="N42" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="O42" t="n">
-        <v>14.36185758280979</v>
+        <v>9.403628713544011</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,16 +37938,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>14.36185758280979</v>
+        <v>9.403628713544006</v>
       </c>
       <c r="L43" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="M43" t="n">
-        <v>14.36185758280979</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="N43" t="n">
-        <v>13.78158050875687</v>
+        <v>9.799570975166912</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
